--- a/Projet1/Dataset/DataStats.xlsx
+++ b/Projet1/Dataset/DataStats.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/Travail/2020-2021/data_science/Projets/DataScienceP1/Projet2/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/Travail/2020-2021/data_science/Projets/DataScienceP1/Projet1/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD1F476-BD2A-1642-BD3E-193E3FBA5452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496BDE8-FC85-1147-B7EF-B2508ED3480E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{7A51D3B7-AD9F-0F44-9698-2A49EF3623C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="252">
   <si>
     <t>0.0016667</t>
   </si>
@@ -783,10 +783,13 @@
     <t>﻿240</t>
   </si>
   <si>
-    <t>﻿3,30256</t>
-  </si>
-  <si>
-    <t>﻿   2,89167</t>
+    <t>Ecart avec/sans multicount</t>
+  </si>
+  <si>
+    <t>% ecart</t>
+  </si>
+  <si>
+    <t>moyenne par catégories</t>
   </si>
 </sst>
 </file>
@@ -835,9 +838,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,7 +1673,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.3025600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.11042</c:v>
@@ -2635,7 +2641,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2465854237288125</c:v>
+                  <c:v>3.2475183333333324</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.44099833333333344</c:v>
@@ -2897,7 +2903,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2664057627118628</c:v>
+                  <c:v>3.2601601666666653</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.43438550000000004</c:v>
@@ -4615,7 +4621,7 @@
                   <c:v>0.15296999999999999</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0</c:v>
+                  <c:v>2.89167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7449,55 +7455,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AF7F07-C733-7448-915B-56A0194F9455}">
   <dimension ref="A1:IM261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="N1" t="s">
         <v>8</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="R1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>249</v>
+      <c r="B2" s="1">
+        <v>3.3025600000000002</v>
       </c>
       <c r="C2" s="1">
         <f>AVERAGE(B2:B61)</f>
-        <v>3.2465854237288125</v>
+        <v>3.2475183333333324</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>250</v>
+      <c r="O2" s="1">
+        <v>2.89167</v>
       </c>
       <c r="P2" s="1">
         <f>AVERAGE(O2:O61)</f>
-        <v>3.2664057627118628</v>
+        <v>3.2601601666666653</v>
       </c>
       <c r="R2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <f>B2-O2</f>
+        <v>0.4108900000000002</v>
+      </c>
+      <c r="Y2">
+        <f>ABS(X2/B2)</f>
+        <v>0.12441560486410548</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE2" t="b">
+        <f>AA2=AC2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -7519,10 +7570,38 @@
         <v>0.43438550000000004</v>
       </c>
       <c r="R3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="0">B3-O3</f>
+        <v>0.1428799999999999</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="1">ABS(X3/B3)</f>
+        <v>4.5935918621922409E-2</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE3" t="b">
+        <f t="shared" ref="AE3:AE66" si="2">AA3=AC3</f>
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <f>COUNTIF(AE2:AE241,TRUE)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -7544,10 +7623,38 @@
         <v>0.20394299999999993</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>-0.67566000000000059</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>0.17440797930831556</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <f>COUNTIF(AE2:AE241,FALSE)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7569,11 +7676,38 @@
         <v>0.16228316666666665</v>
       </c>
       <c r="R5">
-        <f>SUM(R1:R4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0.12192999999999987</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>3.1760875227923903E-2</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <f>AF3+AF4</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -7588,8 +7722,36 @@
         <v>3.3929800000000001</v>
       </c>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <f>SUM(R2:R5)</f>
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>-0.73045999999999989</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>0.27434911287051356</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -7604,8 +7766,32 @@
         <v>5.5050499999999998</v>
       </c>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>-0.17729999999999979</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>3.3278588522359306E-2</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -7620,8 +7806,32 @@
         <v>2.3148200000000001</v>
       </c>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0.4700599999999997</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>0.16879003763178296</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -7636,8 +7846,32 @@
         <v>2.7790400000000002</v>
       </c>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>9.4609999999999861E-2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>3.2923285716771306E-2</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -7652,8 +7886,32 @@
         <v>4.3079200000000002</v>
       </c>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>5.0720000000000098E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>1.1636657305948666E-2</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -7668,8 +7926,32 @@
         <v>2.7233800000000001</v>
       </c>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>-0.25958000000000014</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>0.10535757772546479</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -7684,8 +7966,32 @@
         <v>2.7830400000000002</v>
       </c>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>7.8559999999999963E-2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>2.7453173050041919E-2</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -7700,8 +8006,32 @@
         <v>3.15951</v>
       </c>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>-0.31733000000000011</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>0.11165021216108766</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -7716,8 +8046,32 @@
         <v>3.0284599999999999</v>
       </c>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>9.352000000000027E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>2.9955348849127882E-2</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -7732,8 +8086,32 @@
         <v>3.2437999999999998</v>
       </c>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>-0.30759999999999987</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>0.10476125604522848</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -7748,6 +8126,30 @@
         <v>2.2983199999999999</v>
       </c>
       <c r="P16" s="1"/>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>-0.23626000000000014</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>0.11457474564270688</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:247" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -7764,6 +8166,30 @@
         <v>4.4260400000000004</v>
       </c>
       <c r="P17" s="1"/>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>-0.66750000000000043</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>0.17759555572110458</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:247" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -7780,6 +8206,30 @@
         <v>2.3050000000000002</v>
       </c>
       <c r="P18" s="1"/>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>-8.9760000000000062E-2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>4.0519311677290074E-2</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:247" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -7796,6 +8246,30 @@
         <v>4.7250699999999997</v>
       </c>
       <c r="P19" s="1"/>
+      <c r="X19">
+        <f t="shared" si="0"/>
+        <v>0.88399000000000072</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>0.15760038223873532</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:247" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -7812,6 +8286,30 @@
         <v>3.9234200000000001</v>
       </c>
       <c r="P20" s="1"/>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>0.22504999999999953</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>5.424891586536712E-2</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:247" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -7828,6 +8326,30 @@
         <v>2.9010400000000001</v>
       </c>
       <c r="P21" s="1"/>
+      <c r="X21">
+        <f t="shared" si="0"/>
+        <v>-0.32584999999999997</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>0.12653435280503572</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK21" t="s">
         <v>0</v>
       </c>
@@ -7853,6 +8375,30 @@
         <v>1.9823200000000001</v>
       </c>
       <c r="P22" s="1"/>
+      <c r="X22">
+        <f t="shared" si="0"/>
+        <v>0.18647999999999998</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>8.5983032091479145E-2</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK22" t="s">
         <v>0</v>
       </c>
@@ -7878,6 +8424,30 @@
         <v>6.3391700000000002</v>
       </c>
       <c r="P23" s="1"/>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>7.6239999999999419E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>1.1883885831147101E-2</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK23" t="s">
         <v>0</v>
       </c>
@@ -7903,6 +8473,30 @@
         <v>5.6482299999999999</v>
       </c>
       <c r="P24" s="1"/>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>-0.47358000000000011</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="1"/>
+        <v>9.151923318485311E-2</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK24" t="s">
         <v>0</v>
       </c>
@@ -7928,6 +8522,30 @@
         <v>2.5497000000000001</v>
       </c>
       <c r="P25" s="1"/>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>0.3662099999999997</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="1"/>
+        <v>0.12559029599678992</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK25" t="s">
         <v>0</v>
       </c>
@@ -7953,6 +8571,30 @@
         <v>1.77068</v>
       </c>
       <c r="P26" s="1"/>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>-0.10128000000000004</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>6.0668503654007451E-2</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK26" t="s">
         <v>0</v>
       </c>
@@ -7978,6 +8620,30 @@
         <v>2.2844899999999999</v>
       </c>
       <c r="P27" s="1"/>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>9.1310000000000002E-2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="1"/>
+        <v>3.8433369812273764E-2</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="AE27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK27" t="s">
         <v>0</v>
       </c>
@@ -8003,6 +8669,30 @@
         <v>2.3363399999999999</v>
       </c>
       <c r="P28" s="1"/>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>0.19415000000000004</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="1"/>
+        <v>7.6724270793403673E-2</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0.15953000000000001</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="AE28" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK28" t="s">
         <v>0</v>
       </c>
@@ -8028,6 +8718,30 @@
         <v>3.09775</v>
       </c>
       <c r="P29" s="1"/>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>-0.15349000000000013</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="1"/>
+        <v>5.2131944868999386E-2</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0.16006000000000001</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="AE29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK29" t="s">
         <v>0</v>
       </c>
@@ -8053,6 +8767,30 @@
         <v>3.08839</v>
       </c>
       <c r="P30" s="1"/>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>0.17545000000000011</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>5.3755698808765164E-2</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0.16064000000000001</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0.15981000000000001</v>
+      </c>
+      <c r="AE30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK30" t="s">
         <v>0</v>
       </c>
@@ -8078,6 +8816,30 @@
         <v>3.6665000000000001</v>
       </c>
       <c r="P31" s="1"/>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>0.34715000000000007</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="1"/>
+        <v>8.6492344873120491E-2</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0.16064000000000001</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="AE31" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK31" t="s">
         <v>0</v>
       </c>
@@ -8103,6 +8865,30 @@
         <v>6.5532599999999999</v>
       </c>
       <c r="P32" s="1"/>
+      <c r="X32">
+        <f t="shared" si="0"/>
+        <v>-0.38267000000000007</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="1"/>
+        <v>6.2015139557157435E-2</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0.16069</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="AE32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK32" t="s">
         <v>0</v>
       </c>
@@ -8128,6 +8914,30 @@
         <v>3.1871800000000001</v>
       </c>
       <c r="P33" s="1"/>
+      <c r="X33">
+        <f t="shared" si="0"/>
+        <v>-2.7870000000000061E-2</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="1"/>
+        <v>8.8215464769206119E-3</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.16069</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="AE33" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK33" t="s">
         <v>0</v>
       </c>
@@ -8153,6 +8963,30 @@
         <v>1.98064</v>
       </c>
       <c r="P34" s="1"/>
+      <c r="X34">
+        <f t="shared" si="0"/>
+        <v>0.12649000000000021</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="1"/>
+        <v>6.0029518824182754E-2</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.16069</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.16062000000000001</v>
+      </c>
+      <c r="AE34" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK34" t="s">
         <v>0</v>
       </c>
@@ -8178,6 +9012,30 @@
         <v>2.81664</v>
       </c>
       <c r="P35" s="1"/>
+      <c r="X35">
+        <f t="shared" si="0"/>
+        <v>0.22038000000000002</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="1"/>
+        <v>7.256455341090938E-2</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0.16086</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0.16062000000000001</v>
+      </c>
+      <c r="AE35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK35" t="s">
         <v>0</v>
       </c>
@@ -8203,6 +9061,30 @@
         <v>1.6600999999999999</v>
       </c>
       <c r="P36" s="1"/>
+      <c r="X36">
+        <f t="shared" si="0"/>
+        <v>-2.574999999999994E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="1"/>
+        <v>1.5755499128093702E-2</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0.16112000000000001</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="AE36" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK36" t="s">
         <v>1</v>
       </c>
@@ -8228,6 +9110,30 @@
         <v>4.6061899999999998</v>
       </c>
       <c r="P37" s="1"/>
+      <c r="X37">
+        <f t="shared" si="0"/>
+        <v>-0.67737999999999987</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="1"/>
+        <v>0.17241352979655414</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0.16166</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0.16164000000000001</v>
+      </c>
+      <c r="AE37" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK37" t="s">
         <v>0</v>
       </c>
@@ -8253,6 +9159,30 @@
         <v>5.3529</v>
       </c>
       <c r="P38" s="1"/>
+      <c r="X38">
+        <f t="shared" si="0"/>
+        <v>0.49582000000000015</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="1"/>
+        <v>8.477410441942855E-2</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0.16255</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="AE38" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK38" t="s">
         <v>0</v>
       </c>
@@ -8278,6 +9208,30 @@
         <v>1.10198</v>
       </c>
       <c r="P39" s="1"/>
+      <c r="X39">
+        <f t="shared" si="0"/>
+        <v>0.3004</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="1"/>
+        <v>0.21420727620188537</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0.16294</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0.16220999999999999</v>
+      </c>
+      <c r="AE39" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK39" t="s">
         <v>0</v>
       </c>
@@ -8303,6 +9257,30 @@
         <v>5.8898700000000002</v>
       </c>
       <c r="P40" s="1"/>
+      <c r="X40">
+        <f t="shared" si="0"/>
+        <v>0.25075000000000003</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="1"/>
+        <v>4.0834638847543084E-2</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0.16228999999999999</v>
+      </c>
+      <c r="AE40" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK40" t="s">
         <v>0</v>
       </c>
@@ -8328,6 +9306,30 @@
         <v>3.0195400000000001</v>
       </c>
       <c r="P41" s="1"/>
+      <c r="X41">
+        <f t="shared" si="0"/>
+        <v>5.6899999999999729E-2</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="1"/>
+        <v>1.8495403778393121E-2</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0.16239000000000001</v>
+      </c>
+      <c r="AE41" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK41" t="s">
         <v>1</v>
       </c>
@@ -8353,6 +9355,30 @@
         <v>2.6991700000000001</v>
       </c>
       <c r="P42" s="1"/>
+      <c r="X42">
+        <f t="shared" si="0"/>
+        <v>-0.26991999999999994</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="1"/>
+        <v>0.11111248327673147</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0.16303999999999999</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0.16297</v>
+      </c>
+      <c r="AE42" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK42" t="s">
         <v>0</v>
       </c>
@@ -8378,6 +9404,30 @@
         <v>1.30016</v>
       </c>
       <c r="P43" s="1"/>
+      <c r="X43">
+        <f t="shared" si="0"/>
+        <v>-4.5630000000000059E-2</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="1"/>
+        <v>3.6372187193610406E-2</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0.16378999999999999</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0.16297</v>
+      </c>
+      <c r="AE43" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK43" t="s">
         <v>0</v>
       </c>
@@ -8403,6 +9453,30 @@
         <v>2.9722900000000001</v>
       </c>
       <c r="P44" s="1"/>
+      <c r="X44">
+        <f t="shared" si="0"/>
+        <v>-6.9290000000000074E-2</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="1"/>
+        <v>2.3868411987599061E-2</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0.16383</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0.16297</v>
+      </c>
+      <c r="AE44" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK44" t="s">
         <v>0</v>
       </c>
@@ -8428,6 +9502,30 @@
         <v>2.7531099999999999</v>
       </c>
       <c r="P45" s="1"/>
+      <c r="X45">
+        <f t="shared" si="0"/>
+        <v>4.1020000000000056E-2</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="1"/>
+        <v>1.46807772007745E-2</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0.16383</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0.16297</v>
+      </c>
+      <c r="AE45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK45" t="s">
         <v>0</v>
       </c>
@@ -8453,6 +9551,30 @@
         <v>2.0829</v>
       </c>
       <c r="P46" s="1"/>
+      <c r="X46">
+        <f t="shared" si="0"/>
+        <v>-3.017000000000003E-2</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="1"/>
+        <v>1.4697500401903821E-2</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0.16383</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0.16349</v>
+      </c>
+      <c r="AE46" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK46" t="s">
         <v>0</v>
       </c>
@@ -8478,6 +9600,30 @@
         <v>4.0720999999999998</v>
       </c>
       <c r="P47" s="1"/>
+      <c r="X47">
+        <f t="shared" si="0"/>
+        <v>9.4500000000000028E-2</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="1"/>
+        <v>2.2680362885806181E-2</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0.16483999999999999</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0.16431999999999999</v>
+      </c>
+      <c r="AE47" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK47" t="s">
         <v>0</v>
       </c>
@@ -8503,6 +9649,30 @@
         <v>1.9535199999999999</v>
       </c>
       <c r="P48" s="1"/>
+      <c r="X48">
+        <f t="shared" si="0"/>
+        <v>-0.19248999999999983</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="1"/>
+        <v>0.10930534971011273</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0.16541</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0.16494</v>
+      </c>
+      <c r="AE48" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK48" t="s">
         <v>0</v>
       </c>
@@ -8528,6 +9698,30 @@
         <v>1.8790199999999999</v>
       </c>
       <c r="P49" s="1"/>
+      <c r="X49">
+        <f t="shared" si="0"/>
+        <v>-0.13562999999999992</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="1"/>
+        <v>7.7796706416808581E-2</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0.16597000000000001</v>
+      </c>
+      <c r="AE49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="IK49" t="s">
         <v>0</v>
       </c>
@@ -8553,6 +9747,30 @@
         <v>1.79833</v>
       </c>
       <c r="P50" s="1"/>
+      <c r="X50">
+        <f t="shared" si="0"/>
+        <v>-0.19733000000000001</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="1"/>
+        <v>0.12325421611492818</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0.16742000000000001</v>
+      </c>
+      <c r="AE50" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK50" t="s">
         <v>0</v>
       </c>
@@ -8578,6 +9796,30 @@
         <v>1.8176000000000001</v>
       </c>
       <c r="P51" s="1"/>
+      <c r="X51">
+        <f t="shared" si="0"/>
+        <v>9.7599999999999909E-3</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="1"/>
+        <v>5.341038437965147E-3</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0.16744000000000001</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0.16763</v>
+      </c>
+      <c r="AE51" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK51" t="s">
         <v>0</v>
       </c>
@@ -8603,6 +9845,30 @@
         <v>2.5101599999999999</v>
       </c>
       <c r="P52" s="1"/>
+      <c r="X52">
+        <f t="shared" si="0"/>
+        <v>0.40291999999999994</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="1"/>
+        <v>0.13831408680846388</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0.16877</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>0.16818</v>
+      </c>
+      <c r="AE52" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK52" t="s">
         <v>0</v>
       </c>
@@ -8628,6 +9894,30 @@
         <v>3.54339</v>
       </c>
       <c r="P53" s="1"/>
+      <c r="X53">
+        <f t="shared" si="0"/>
+        <v>0.62055999999999978</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="1"/>
+        <v>0.14903156858271588</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>0.16929</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0.16827</v>
+      </c>
+      <c r="AE53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK53" t="s">
         <v>0</v>
       </c>
@@ -8653,6 +9943,30 @@
         <v>2.6628400000000001</v>
       </c>
       <c r="P54" s="1"/>
+      <c r="X54">
+        <f t="shared" si="0"/>
+        <v>0.31337999999999999</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="1"/>
+        <v>0.10529463547721606</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0.1704</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>0.16828000000000001</v>
+      </c>
+      <c r="AE54" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK54" t="s">
         <v>0</v>
       </c>
@@ -8678,6 +9992,30 @@
         <v>5.1902900000000001</v>
       </c>
       <c r="P55" s="1"/>
+      <c r="X55">
+        <f t="shared" si="0"/>
+        <v>-0.67860000000000031</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="1"/>
+        <v>0.15040927014045744</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0.17155000000000001</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>0.16896</v>
+      </c>
+      <c r="AE55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK55" t="s">
         <v>0</v>
       </c>
@@ -8703,6 +10041,30 @@
         <v>3.2353900000000002</v>
       </c>
       <c r="P56" s="1"/>
+      <c r="X56">
+        <f t="shared" si="0"/>
+        <v>-0.13893000000000022</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="1"/>
+        <v>4.4867364668040352E-2</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0.17157</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0.17004</v>
+      </c>
+      <c r="AE56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK56" t="s">
         <v>0</v>
       </c>
@@ -8728,6 +10090,30 @@
         <v>4.0024899999999999</v>
       </c>
       <c r="P57" s="1"/>
+      <c r="X57">
+        <f t="shared" si="0"/>
+        <v>-0.32145000000000001</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="1"/>
+        <v>8.7325864429617719E-2</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>0.17252000000000001</v>
+      </c>
+      <c r="AC57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0.17155000000000001</v>
+      </c>
+      <c r="AE57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK57" t="s">
         <v>0</v>
       </c>
@@ -8753,6 +10139,30 @@
         <v>1.7455799999999999</v>
       </c>
       <c r="P58" s="1"/>
+      <c r="X58">
+        <f t="shared" si="0"/>
+        <v>-1.1809999999999876E-2</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="1"/>
+        <v>6.8117455025752411E-3</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0.17255999999999999</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0.17161000000000001</v>
+      </c>
+      <c r="AE58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK58" t="s">
         <v>0</v>
       </c>
@@ -8778,6 +10188,30 @@
         <v>4.7067100000000002</v>
       </c>
       <c r="P59" s="1"/>
+      <c r="X59">
+        <f t="shared" si="0"/>
+        <v>0.2058099999999996</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="1"/>
+        <v>4.1894994829537513E-2</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0.17413999999999999</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0.17247000000000001</v>
+      </c>
+      <c r="AE59" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK59" t="s">
         <v>0</v>
       </c>
@@ -8803,6 +10237,30 @@
         <v>3.84355</v>
       </c>
       <c r="P60" s="1"/>
+      <c r="X60">
+        <f t="shared" si="0"/>
+        <v>-9.5530000000000115E-2</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="1"/>
+        <v>2.5488124396347969E-2</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0.17413999999999999</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0.17410999999999999</v>
+      </c>
+      <c r="AE60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK60" t="s">
         <v>0</v>
       </c>
@@ -8828,6 +10286,30 @@
         <v>3.9662899999999999</v>
       </c>
       <c r="P61" s="1"/>
+      <c r="X61">
+        <f t="shared" si="0"/>
+        <v>-9.0300000000000047E-2</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="1"/>
+        <v>2.3297273728776404E-2</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0.17463000000000001</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0.17410999999999999</v>
+      </c>
+      <c r="AE61" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK61" t="s">
         <v>0</v>
       </c>
@@ -8853,6 +10335,30 @@
         <v>0.26888000000000001</v>
       </c>
       <c r="P62" s="1"/>
+      <c r="X62">
+        <f t="shared" si="0"/>
+        <v>8.0100000000000171E-3</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="1"/>
+        <v>2.8928455343277173E-2</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0.17607999999999999</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0.17427999999999999</v>
+      </c>
+      <c r="AE62" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK62" t="s">
         <v>0</v>
       </c>
@@ -8878,6 +10384,30 @@
         <v>0.45467000000000002</v>
       </c>
       <c r="P63" s="1"/>
+      <c r="X63">
+        <f t="shared" si="0"/>
+        <v>1.0259999999999991E-2</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="1"/>
+        <v>2.206783816918674E-2</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0.17835000000000001</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0.17432</v>
+      </c>
+      <c r="AE63" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK63" t="s">
         <v>0</v>
       </c>
@@ -8903,6 +10433,30 @@
         <v>0.30820999999999998</v>
       </c>
       <c r="P64" s="1"/>
+      <c r="X64">
+        <f t="shared" si="0"/>
+        <v>7.3000000000000287E-3</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="1"/>
+        <v>2.3137143038255613E-2</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0.17841000000000001</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0.17463999999999999</v>
+      </c>
+      <c r="AE64" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK64" t="s">
         <v>6</v>
       </c>
@@ -8928,6 +10482,30 @@
         <v>0.442</v>
       </c>
       <c r="P65" s="1"/>
+      <c r="X65">
+        <f t="shared" si="0"/>
+        <v>-9.5000000000000639E-4</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="1"/>
+        <v>2.1539507992291269E-3</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0.17846999999999999</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0.17568</v>
+      </c>
+      <c r="AE65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK65" t="s">
         <v>0</v>
       </c>
@@ -8953,6 +10531,30 @@
         <v>0.38205</v>
       </c>
       <c r="P66" s="1"/>
+      <c r="X66">
+        <f t="shared" si="0"/>
+        <v>-2.6139999999999997E-2</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="1"/>
+        <v>7.3445533983310371E-2</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0.17924999999999999</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0.17577999999999999</v>
+      </c>
+      <c r="AE66" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="IK66" t="s">
         <v>1</v>
       </c>
@@ -8978,6 +10580,30 @@
         <v>0.31007000000000001</v>
       </c>
       <c r="P67" s="1"/>
+      <c r="X67">
+        <f t="shared" ref="X67:X130" si="3">B67-O67</f>
+        <v>2.3770000000000013E-2</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y130" si="4">ABS(X67/B67)</f>
+        <v>7.1201773304577082E-2</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0.17931</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0.17605999999999999</v>
+      </c>
+      <c r="AE67" t="b">
+        <f t="shared" ref="AE67:AE130" si="5">AA67=AC67</f>
+        <v>0</v>
+      </c>
       <c r="IK67" t="s">
         <v>1</v>
       </c>
@@ -9003,6 +10629,30 @@
         <v>0.42283999999999999</v>
       </c>
       <c r="P68" s="1"/>
+      <c r="X68">
+        <f t="shared" si="3"/>
+        <v>1.8490000000000006E-2</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="4"/>
+        <v>4.1896086828450384E-2</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0.18015999999999999</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0.17724999999999999</v>
+      </c>
+      <c r="AE68" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK68" t="s">
         <v>1</v>
       </c>
@@ -9028,6 +10678,30 @@
         <v>0.29969000000000001</v>
       </c>
       <c r="P69" s="1"/>
+      <c r="X69">
+        <f t="shared" si="3"/>
+        <v>1.9289999999999974E-2</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="4"/>
+        <v>6.0474010909774827E-2</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0.18123</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="AE69" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK69" t="s">
         <v>0</v>
       </c>
@@ -9053,6 +10727,30 @@
         <v>0.33352999999999999</v>
       </c>
       <c r="P70" s="1"/>
+      <c r="X70">
+        <f t="shared" si="3"/>
+        <v>1.535000000000003E-2</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="4"/>
+        <v>4.3997936253153028E-2</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0.18196999999999999</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0.17773</v>
+      </c>
+      <c r="AE70" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK70" t="s">
         <v>0</v>
       </c>
@@ -9078,6 +10776,30 @@
         <v>0.34611999999999998</v>
       </c>
       <c r="P71" s="1"/>
+      <c r="X71">
+        <f t="shared" si="3"/>
+        <v>7.9000000000000181E-3</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="4"/>
+        <v>2.2315123439353761E-2</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0.18232999999999999</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0.17863000000000001</v>
+      </c>
+      <c r="AE71" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK71" t="s">
         <v>0</v>
       </c>
@@ -9103,6 +10825,30 @@
         <v>0.51217000000000001</v>
       </c>
       <c r="P72" s="1"/>
+      <c r="X72">
+        <f t="shared" si="3"/>
+        <v>-5.260999999999999E-2</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="4"/>
+        <v>0.11447906693358863</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0.18282999999999999</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0.17887</v>
+      </c>
+      <c r="AE72" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK72" t="s">
         <v>0</v>
       </c>
@@ -9128,6 +10874,30 @@
         <v>0.28011000000000003</v>
       </c>
       <c r="P73" s="1"/>
+      <c r="X73">
+        <f t="shared" si="3"/>
+        <v>1.7399999999999971E-2</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="4"/>
+        <v>5.8485429061207933E-2</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0.18328</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0.18007000000000001</v>
+      </c>
+      <c r="AE73" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK73" t="s">
         <v>0</v>
       </c>
@@ -9153,6 +10923,30 @@
         <v>0.53683000000000003</v>
       </c>
       <c r="P74" s="1"/>
+      <c r="X74">
+        <f t="shared" si="3"/>
+        <v>2.2009999999999974E-2</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="4"/>
+        <v>3.9385154963853648E-2</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0.18385000000000001</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0.18121000000000001</v>
+      </c>
+      <c r="AE74" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK74" t="s">
         <v>0</v>
       </c>
@@ -9178,6 +10972,30 @@
         <v>0.29505999999999999</v>
       </c>
       <c r="P75" s="1"/>
+      <c r="X75">
+        <f t="shared" si="3"/>
+        <v>1.0220000000000007E-2</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="4"/>
+        <v>3.3477463312368998E-2</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0.18387000000000001</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0.18248</v>
+      </c>
+      <c r="AE75" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK75" t="s">
         <v>0</v>
       </c>
@@ -9203,6 +11021,30 @@
         <v>0.39121</v>
       </c>
       <c r="P76" s="1"/>
+      <c r="X76">
+        <f t="shared" si="3"/>
+        <v>1.2400000000000189E-3</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="4"/>
+        <v>3.1596381704676233E-3</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0.18451999999999999</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0.18476000000000001</v>
+      </c>
+      <c r="AE76" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK76" t="s">
         <v>0</v>
       </c>
@@ -9228,6 +11070,30 @@
         <v>0.49952000000000002</v>
       </c>
       <c r="P77" s="1"/>
+      <c r="X77">
+        <f t="shared" si="3"/>
+        <v>-8.1900000000000306E-3</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="4"/>
+        <v>1.6669041173956466E-2</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>0.18595999999999999</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0.18495</v>
+      </c>
+      <c r="AE77" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK77" t="s">
         <v>0</v>
       </c>
@@ -9253,6 +11119,30 @@
         <v>0.30778</v>
       </c>
       <c r="P78" s="1"/>
+      <c r="X78">
+        <f t="shared" si="3"/>
+        <v>1.2419999999999987E-2</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="4"/>
+        <v>3.8788257339162982E-2</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>0.18557000000000001</v>
+      </c>
+      <c r="AE78" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK78" t="s">
         <v>0</v>
       </c>
@@ -9278,6 +11168,30 @@
         <v>0.41477999999999998</v>
       </c>
       <c r="P79" s="1"/>
+      <c r="X79">
+        <f t="shared" si="3"/>
+        <v>-9.330000000000005E-3</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="4"/>
+        <v>2.3011468738438786E-2</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>0.18945999999999999</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>0.18604000000000001</v>
+      </c>
+      <c r="AE79" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK79" t="s">
         <v>0</v>
       </c>
@@ -9303,6 +11217,30 @@
         <v>0.52041000000000004</v>
       </c>
       <c r="P80" s="1"/>
+      <c r="X80">
+        <f t="shared" si="3"/>
+        <v>-1.8419999999999992E-2</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="4"/>
+        <v>3.6693958046973028E-2</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0.19051000000000001</v>
+      </c>
+      <c r="AC80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>0.18634000000000001</v>
+      </c>
+      <c r="AE80" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK80" t="s">
         <v>0</v>
       </c>
@@ -9328,6 +11266,30 @@
         <v>0.31474000000000002</v>
       </c>
       <c r="P81" s="1"/>
+      <c r="X81">
+        <f t="shared" si="3"/>
+        <v>8.6799999999999655E-3</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="4"/>
+        <v>2.6838167089233707E-2</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>0.19123999999999999</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>0.18844</v>
+      </c>
+      <c r="AE81" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK81" t="s">
         <v>0</v>
       </c>
@@ -9353,6 +11315,30 @@
         <v>0.35154999999999997</v>
       </c>
       <c r="P82" s="1"/>
+      <c r="X82">
+        <f t="shared" si="3"/>
+        <v>3.3700000000000008E-2</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="4"/>
+        <v>8.7475665152498397E-2</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>0.1923</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>0.18934999999999999</v>
+      </c>
+      <c r="AE82" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK82" t="s">
         <v>0</v>
       </c>
@@ -9378,6 +11364,30 @@
         <v>0.48259999999999997</v>
       </c>
       <c r="P83" s="1"/>
+      <c r="X83">
+        <f t="shared" si="3"/>
+        <v>1.9409999999999983E-2</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="4"/>
+        <v>3.8664568434891702E-2</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>0.19564999999999999</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>0.19125</v>
+      </c>
+      <c r="AE83" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK83" t="s">
         <v>0</v>
       </c>
@@ -9403,6 +11413,30 @@
         <v>0.27665000000000001</v>
       </c>
       <c r="P84" s="1"/>
+      <c r="X84">
+        <f t="shared" si="3"/>
+        <v>5.1399999999999779E-3</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="4"/>
+        <v>1.8240533730792357E-2</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>0.19633999999999999</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>0.19177</v>
+      </c>
+      <c r="AE84" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK84" t="s">
         <v>0</v>
       </c>
@@ -9428,6 +11462,30 @@
         <v>0.48035</v>
       </c>
       <c r="P85" s="1"/>
+      <c r="X85">
+        <f t="shared" si="3"/>
+        <v>2.857000000000004E-2</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="4"/>
+        <v>5.6138489349996143E-2</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>0.19633999999999999</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="AE85" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK85" t="s">
         <v>0</v>
       </c>
@@ -9453,6 +11511,30 @@
         <v>0.40112999999999999</v>
       </c>
       <c r="P86" s="1"/>
+      <c r="X86">
+        <f t="shared" si="3"/>
+        <v>2.0369999999999999E-2</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="4"/>
+        <v>4.8327402135231318E-2</v>
+      </c>
+      <c r="AA86" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0.19753000000000001</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>0.19519</v>
+      </c>
+      <c r="AE86" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK86" t="s">
         <v>0</v>
       </c>
@@ -9478,6 +11560,30 @@
         <v>0.31145</v>
       </c>
       <c r="P87" s="1"/>
+      <c r="X87">
+        <f t="shared" si="3"/>
+        <v>2.7569999999999983E-2</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="4"/>
+        <v>8.1322635832694196E-2</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB87" s="1">
+        <v>0.19758000000000001</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>0.19631000000000001</v>
+      </c>
+      <c r="AE87" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK87" t="s">
         <v>0</v>
       </c>
@@ -9503,6 +11609,30 @@
         <v>0.29275000000000001</v>
       </c>
       <c r="P88" s="1"/>
+      <c r="X88">
+        <f t="shared" si="3"/>
+        <v>-8.4799999999999875E-3</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="4"/>
+        <v>2.983079466704185E-2</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>0.19800999999999999</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>0.19631000000000001</v>
+      </c>
+      <c r="AE88" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK88" t="s">
         <v>0</v>
       </c>
@@ -9528,6 +11658,30 @@
         <v>0.36892000000000003</v>
       </c>
       <c r="P89" s="1"/>
+      <c r="X89">
+        <f t="shared" si="3"/>
+        <v>3.7099999999999966E-2</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="4"/>
+        <v>9.1374809122703238E-2</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>0.19803999999999999</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>0.19653999999999999</v>
+      </c>
+      <c r="AE89" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK89" t="s">
         <v>0</v>
       </c>
@@ -9553,6 +11707,30 @@
         <v>0.28892000000000001</v>
       </c>
       <c r="P90" s="1"/>
+      <c r="X90">
+        <f t="shared" si="3"/>
+        <v>2.6870000000000005E-2</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="4"/>
+        <v>8.5088191519680806E-2</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>0.19899</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>0.19681000000000001</v>
+      </c>
+      <c r="AE90" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK90" t="s">
         <v>0</v>
       </c>
@@ -9578,6 +11756,30 @@
         <v>0.45696999999999999</v>
       </c>
       <c r="P91" s="1"/>
+      <c r="X91">
+        <f t="shared" si="3"/>
+        <v>9.130000000000027E-3</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="4"/>
+        <v>1.9588071229349982E-2</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>0.19964999999999999</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>0.19744999999999999</v>
+      </c>
+      <c r="AE91" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK91" t="s">
         <v>0</v>
       </c>
@@ -9603,6 +11805,30 @@
         <v>0.40161999999999998</v>
       </c>
       <c r="P92" s="1"/>
+      <c r="X92">
+        <f t="shared" si="3"/>
+        <v>2.1930000000000005E-2</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="4"/>
+        <v>5.1776649746192907E-2</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0.19983000000000001</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>0.19763</v>
+      </c>
+      <c r="AE92" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK92" t="s">
         <v>0</v>
       </c>
@@ -9628,6 +11854,30 @@
         <v>0.29894999999999999</v>
       </c>
       <c r="P93" s="1"/>
+      <c r="X93">
+        <f t="shared" si="3"/>
+        <v>1.9200000000000328E-3</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="4"/>
+        <v>6.3814936683618591E-3</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>0.20196</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>0.19839000000000001</v>
+      </c>
+      <c r="AE93" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK93" t="s">
         <v>0</v>
       </c>
@@ -9653,6 +11903,30 @@
         <v>0.41577999999999998</v>
       </c>
       <c r="P94" s="1"/>
+      <c r="X94">
+        <f t="shared" si="3"/>
+        <v>-1.2199999999999989E-2</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="4"/>
+        <v>3.0229446454234574E-2</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>0.20218</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>0.19869000000000001</v>
+      </c>
+      <c r="AE94" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK94" t="s">
         <v>0</v>
       </c>
@@ -9678,6 +11952,30 @@
         <v>0.35822999999999999</v>
       </c>
       <c r="P95" s="1"/>
+      <c r="X95">
+        <f t="shared" si="3"/>
+        <v>8.75999999999999E-3</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="4"/>
+        <v>2.3869860214174747E-2</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>0.20444000000000001</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>0.20108000000000001</v>
+      </c>
+      <c r="AE95" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK95" t="s">
         <v>0</v>
       </c>
@@ -9703,6 +12001,30 @@
         <v>0.45578000000000002</v>
       </c>
       <c r="P96" s="1"/>
+      <c r="X96">
+        <f t="shared" si="3"/>
+        <v>9.3999999999999639E-3</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="4"/>
+        <v>2.0207231609269453E-2</v>
+      </c>
+      <c r="AA96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>0.20682</v>
+      </c>
+      <c r="AC96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>0.20421</v>
+      </c>
+      <c r="AE96" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK96" t="s">
         <v>0</v>
       </c>
@@ -9728,6 +12050,30 @@
         <v>0.30303999999999998</v>
       </c>
       <c r="P97" s="1"/>
+      <c r="X97">
+        <f t="shared" si="3"/>
+        <v>-2.4119999999999975E-2</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="4"/>
+        <v>8.6476409006166557E-2</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>0.2074</v>
+      </c>
+      <c r="AC97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>0.2046</v>
+      </c>
+      <c r="AE97" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK97" t="s">
         <v>0</v>
       </c>
@@ -9753,6 +12099,30 @@
         <v>0.29786000000000001</v>
       </c>
       <c r="P98" s="1"/>
+      <c r="X98">
+        <f t="shared" si="3"/>
+        <v>6.9799999999999862E-3</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="4"/>
+        <v>2.2897257577745658E-2</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>0.21115999999999999</v>
+      </c>
+      <c r="AC98" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="AE98" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK98" t="s">
         <v>0</v>
       </c>
@@ -9778,6 +12148,30 @@
         <v>0.31107000000000001</v>
       </c>
       <c r="P99" s="1"/>
+      <c r="X99">
+        <f t="shared" si="3"/>
+        <v>2.6090000000000002E-2</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="4"/>
+        <v>7.7381658559734251E-2</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>0.21171000000000001</v>
+      </c>
+      <c r="AC99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="AE99" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK99" t="s">
         <v>0</v>
       </c>
@@ -9803,6 +12197,30 @@
         <v>0.26822000000000001</v>
       </c>
       <c r="P100" s="1"/>
+      <c r="X100">
+        <f t="shared" si="3"/>
+        <v>7.4400000000000022E-3</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="4"/>
+        <v>2.698977000652979E-2</v>
+      </c>
+      <c r="AA100" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB100" s="1">
+        <v>0.21224000000000001</v>
+      </c>
+      <c r="AC100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD100" s="1">
+        <v>0.20982000000000001</v>
+      </c>
+      <c r="AE100" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK100" t="s">
         <v>0</v>
       </c>
@@ -9828,6 +12246,30 @@
         <v>0.58755999999999997</v>
       </c>
       <c r="P101" s="1"/>
+      <c r="X101">
+        <f t="shared" si="3"/>
+        <v>-2.6699999999999502E-3</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="4"/>
+        <v>4.5649609328248901E-3</v>
+      </c>
+      <c r="AA101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>0.21395</v>
+      </c>
+      <c r="AC101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>0.21953</v>
+      </c>
+      <c r="AE101" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK101" t="s">
         <v>0</v>
       </c>
@@ -9853,6 +12295,30 @@
         <v>0.38108999999999998</v>
       </c>
       <c r="P102" s="1"/>
+      <c r="X102">
+        <f t="shared" si="3"/>
+        <v>1.1390000000000011E-2</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="4"/>
+        <v>2.9020587036282134E-2</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB102" s="1">
+        <v>0.22448000000000001</v>
+      </c>
+      <c r="AC102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD102" s="1">
+        <v>0.22191</v>
+      </c>
+      <c r="AE102" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK102" t="s">
         <v>0</v>
       </c>
@@ -9878,6 +12344,30 @@
         <v>0.40150999999999998</v>
       </c>
       <c r="P103" s="1"/>
+      <c r="X103">
+        <f t="shared" si="3"/>
+        <v>3.2720000000000027E-2</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="4"/>
+        <v>7.5351772102342132E-2</v>
+      </c>
+      <c r="AA103" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB103" s="1">
+        <v>0.22763</v>
+      </c>
+      <c r="AC103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD103" s="1">
+        <v>0.22234000000000001</v>
+      </c>
+      <c r="AE103" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK103" t="s">
         <v>0</v>
       </c>
@@ -9903,6 +12393,30 @@
         <v>0.32008999999999999</v>
       </c>
       <c r="P104" s="1"/>
+      <c r="X104">
+        <f t="shared" si="3"/>
+        <v>-2.8400000000000092E-3</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="4"/>
+        <v>8.9519306540583425E-3</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB104" s="1">
+        <v>0.23144999999999999</v>
+      </c>
+      <c r="AC104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>0.22392000000000001</v>
+      </c>
+      <c r="AE104" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK104" t="s">
         <v>0</v>
       </c>
@@ -9928,6 +12442,30 @@
         <v>0.35754999999999998</v>
       </c>
       <c r="P105" s="1"/>
+      <c r="X105">
+        <f t="shared" si="3"/>
+        <v>3.1550000000000022E-2</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="4"/>
+        <v>8.1084554099203343E-2</v>
+      </c>
+      <c r="AA105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>0.23241999999999999</v>
+      </c>
+      <c r="AC105" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>0.22514000000000001</v>
+      </c>
+      <c r="AE105" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK105" t="s">
         <v>1</v>
       </c>
@@ -9953,6 +12491,30 @@
         <v>0.41826000000000002</v>
       </c>
       <c r="P106" s="1"/>
+      <c r="X106">
+        <f t="shared" si="3"/>
+        <v>1.5389999999999959E-2</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="4"/>
+        <v>3.5489450017294963E-2</v>
+      </c>
+      <c r="AA106" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>0.23326</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD106" s="1">
+        <v>0.22688</v>
+      </c>
+      <c r="AE106" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK106" t="s">
         <v>0</v>
       </c>
@@ -9978,6 +12540,30 @@
         <v>0.30281000000000002</v>
       </c>
       <c r="P107" s="1"/>
+      <c r="X107">
+        <f t="shared" si="3"/>
+        <v>9.189999999999976E-3</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="4"/>
+        <v>2.9455128205128127E-2</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>0.23386000000000001</v>
+      </c>
+      <c r="AC107" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>0.22725999999999999</v>
+      </c>
+      <c r="AE107" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK107" t="s">
         <v>0</v>
       </c>
@@ -10003,6 +12589,30 @@
         <v>0.42038999999999999</v>
       </c>
       <c r="P108" s="1"/>
+      <c r="X108">
+        <f t="shared" si="3"/>
+        <v>9.4200000000000395E-3</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="4"/>
+        <v>2.1916660850143176E-2</v>
+      </c>
+      <c r="AA108" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB108" s="1">
+        <v>0.23623</v>
+      </c>
+      <c r="AC108" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD108" s="1">
+        <v>0.22746</v>
+      </c>
+      <c r="AE108" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK108" t="s">
         <v>0</v>
       </c>
@@ -10028,6 +12638,30 @@
         <v>0.42912</v>
       </c>
       <c r="P109" s="1"/>
+      <c r="X109">
+        <f t="shared" si="3"/>
+        <v>1.9560000000000022E-2</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="4"/>
+        <v>4.3594543995720825E-2</v>
+      </c>
+      <c r="AA109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB109" s="1">
+        <v>0.23737</v>
+      </c>
+      <c r="AC109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD109" s="1">
+        <v>0.22842000000000001</v>
+      </c>
+      <c r="AE109" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK109" t="s">
         <v>0</v>
       </c>
@@ -10053,6 +12687,30 @@
         <v>0.38801999999999998</v>
       </c>
       <c r="P110" s="1"/>
+      <c r="X110">
+        <f t="shared" si="3"/>
+        <v>1.6290000000000027E-2</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="4"/>
+        <v>4.0290865919715133E-2</v>
+      </c>
+      <c r="AA110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB110" s="1">
+        <v>0.23758000000000001</v>
+      </c>
+      <c r="AC110" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD110" s="1">
+        <v>0.23286999999999999</v>
+      </c>
+      <c r="AE110" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK110" t="s">
         <v>0</v>
       </c>
@@ -10078,6 +12736,30 @@
         <v>0.46139999999999998</v>
       </c>
       <c r="P111" s="1"/>
+      <c r="X111">
+        <f t="shared" si="3"/>
+        <v>2.3940000000000017E-2</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="4"/>
+        <v>4.9326245518605552E-2</v>
+      </c>
+      <c r="AA111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB111" s="1">
+        <v>0.23968</v>
+      </c>
+      <c r="AC111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD111" s="1">
+        <v>0.23416999999999999</v>
+      </c>
+      <c r="AE111" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK111" t="s">
         <v>0</v>
       </c>
@@ -10103,6 +12785,30 @@
         <v>0.33850999999999998</v>
       </c>
       <c r="P112" s="1"/>
+      <c r="X112">
+        <f t="shared" si="3"/>
+        <v>-1.0160000000000002E-2</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="4"/>
+        <v>3.0942591746611858E-2</v>
+      </c>
+      <c r="AA112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB112" s="1">
+        <v>0.23993999999999999</v>
+      </c>
+      <c r="AC112" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD112" s="1">
+        <v>0.23476</v>
+      </c>
+      <c r="AE112" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK112" t="s">
         <v>0</v>
       </c>
@@ -10128,6 +12834,30 @@
         <v>0.35482999999999998</v>
       </c>
       <c r="P113" s="1"/>
+      <c r="X113">
+        <f t="shared" si="3"/>
+        <v>1.3700000000000045E-2</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="4"/>
+        <v>3.7174721189591198E-2</v>
+      </c>
+      <c r="AA113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB113" s="1">
+        <v>0.24018999999999999</v>
+      </c>
+      <c r="AC113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>0.23538000000000001</v>
+      </c>
+      <c r="AE113" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK113" t="s">
         <v>0</v>
       </c>
@@ -10153,6 +12883,30 @@
         <v>0.30492999999999998</v>
       </c>
       <c r="P114" s="1"/>
+      <c r="X114">
+        <f t="shared" si="3"/>
+        <v>-1.3949999999999962E-2</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="4"/>
+        <v>4.7941439274176788E-2</v>
+      </c>
+      <c r="AA114" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB114" s="1">
+        <v>0.24546000000000001</v>
+      </c>
+      <c r="AC114" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD114" s="1">
+        <v>0.23991000000000001</v>
+      </c>
+      <c r="AE114" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK114" t="s">
         <v>1</v>
       </c>
@@ -10178,6 +12932,30 @@
         <v>0.40709000000000001</v>
       </c>
       <c r="P115" s="1"/>
+      <c r="X115">
+        <f t="shared" si="3"/>
+        <v>1.2170000000000014E-2</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="4"/>
+        <v>2.9027333873968452E-2</v>
+      </c>
+      <c r="AA115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB115" s="1">
+        <v>0.25091000000000002</v>
+      </c>
+      <c r="AC115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD115" s="1">
+        <v>0.24428</v>
+      </c>
+      <c r="AE115" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK115" t="s">
         <v>0</v>
       </c>
@@ -10203,6 +12981,30 @@
         <v>0.34532000000000002</v>
       </c>
       <c r="P116" s="1"/>
+      <c r="X116">
+        <f t="shared" si="3"/>
+        <v>-2.301000000000003E-2</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="4"/>
+        <v>7.1390896962551673E-2</v>
+      </c>
+      <c r="AA116" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB116" s="1">
+        <v>0.25098999999999999</v>
+      </c>
+      <c r="AC116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD116" s="1">
+        <v>0.24729000000000001</v>
+      </c>
+      <c r="AE116" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK116" t="s">
         <v>0</v>
       </c>
@@ -10228,6 +13030,30 @@
         <v>0.31420999999999999</v>
       </c>
       <c r="P117" s="1"/>
+      <c r="X117">
+        <f t="shared" si="3"/>
+        <v>-1.3339999999999963E-2</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="4"/>
+        <v>4.4338086216638289E-2</v>
+      </c>
+      <c r="AA117" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB117" s="1">
+        <v>0.25958999999999999</v>
+      </c>
+      <c r="AC117" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD117" s="1">
+        <v>0.24837000000000001</v>
+      </c>
+      <c r="AE117" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK117" t="s">
         <v>0</v>
       </c>
@@ -10253,6 +13079,30 @@
         <v>0.39657999999999999</v>
       </c>
       <c r="P118" s="1"/>
+      <c r="X118">
+        <f t="shared" si="3"/>
+        <v>2.3270000000000013E-2</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="4"/>
+        <v>5.5424556389186648E-2</v>
+      </c>
+      <c r="AA118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB118" s="1">
+        <v>0.26196999999999998</v>
+      </c>
+      <c r="AC118" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD118" s="1">
+        <v>0.24887999999999999</v>
+      </c>
+      <c r="AE118" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK118" t="s">
         <v>0</v>
       </c>
@@ -10278,6 +13128,30 @@
         <v>0.46078000000000002</v>
       </c>
       <c r="P119" s="1"/>
+      <c r="X119">
+        <f t="shared" si="3"/>
+        <v>4.479999999999984E-3</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="4"/>
+        <v>9.6290246313888665E-3</v>
+      </c>
+      <c r="AA119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB119" s="1">
+        <v>0.26267000000000001</v>
+      </c>
+      <c r="AC119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD119" s="1">
+        <v>0.25568999999999997</v>
+      </c>
+      <c r="AE119" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK119" t="s">
         <v>0</v>
       </c>
@@ -10303,6 +13177,30 @@
         <v>0.24428</v>
       </c>
       <c r="P120" s="1"/>
+      <c r="X120">
+        <f t="shared" si="3"/>
+        <v>1.7689999999999984E-2</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="4"/>
+        <v>6.7526816047638979E-2</v>
+      </c>
+      <c r="AA120" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB120" s="1">
+        <v>0.27566000000000002</v>
+      </c>
+      <c r="AC120" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD120" s="1">
+        <v>0.26822000000000001</v>
+      </c>
+      <c r="AE120" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="IK120" t="s">
         <v>0</v>
       </c>
@@ -10328,6 +13226,30 @@
         <v>0.32001000000000002</v>
       </c>
       <c r="P121" s="1"/>
+      <c r="X121">
+        <f t="shared" si="3"/>
+        <v>5.1700000000000079E-3</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="4"/>
+        <v>1.5898886770404106E-2</v>
+      </c>
+      <c r="AA121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB121" s="1">
+        <v>0.27689000000000002</v>
+      </c>
+      <c r="AC121" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD121" s="1">
+        <v>0.26878999999999997</v>
+      </c>
+      <c r="AE121" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK121" t="s">
         <v>0</v>
       </c>
@@ -10353,6 +13275,30 @@
         <v>0.17724999999999999</v>
       </c>
       <c r="P122" s="1"/>
+      <c r="X122">
+        <f t="shared" si="3"/>
+        <v>3.9800000000000113E-3</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="4"/>
+        <v>2.1961043977266521E-2</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB122" s="1">
+        <v>0.27892</v>
+      </c>
+      <c r="AC122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD122" s="1">
+        <v>0.26888000000000001</v>
+      </c>
+      <c r="AE122" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK122" t="s">
         <v>0</v>
       </c>
@@ -10378,6 +13324,30 @@
         <v>0.23286999999999999</v>
       </c>
       <c r="P123" s="1"/>
+      <c r="X123">
+        <f t="shared" si="3"/>
+        <v>9.9000000000001864E-4</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="4"/>
+        <v>4.2333019755410014E-3</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB123" s="1">
+        <v>0.27978999999999998</v>
+      </c>
+      <c r="AC123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD123" s="1">
+        <v>0.27455000000000002</v>
+      </c>
+      <c r="AE123" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK123" t="s">
         <v>0</v>
       </c>
@@ -10403,6 +13373,30 @@
         <v>0.22688</v>
       </c>
       <c r="P124" s="1"/>
+      <c r="X124">
+        <f t="shared" si="3"/>
+        <v>1.3059999999999988E-2</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="4"/>
+        <v>5.443027423522543E-2</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB124" s="1">
+        <v>0.28178999999999998</v>
+      </c>
+      <c r="AC124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD124" s="1">
+        <v>0.27461999999999998</v>
+      </c>
+      <c r="AE124" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK124" t="s">
         <v>1</v>
       </c>
@@ -10428,6 +13422,30 @@
         <v>0.19653999999999999</v>
       </c>
       <c r="P125" s="1"/>
+      <c r="X125">
+        <f t="shared" si="3"/>
+        <v>5.4200000000000081E-3</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="4"/>
+        <v>2.683699742523276E-2</v>
+      </c>
+      <c r="AA125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB125" s="1">
+        <v>0.28316000000000002</v>
+      </c>
+      <c r="AC125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD125" s="1">
+        <v>0.27665000000000001</v>
+      </c>
+      <c r="AE125" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK125" t="s">
         <v>0</v>
       </c>
@@ -10453,6 +13471,30 @@
         <v>0.16494</v>
       </c>
       <c r="P126" s="1"/>
+      <c r="X126">
+        <f t="shared" si="3"/>
+        <v>1.7300000000000093E-3</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="4"/>
+        <v>1.0379792404151973E-2</v>
+      </c>
+      <c r="AA126" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB126" s="1">
+        <v>0.28427000000000002</v>
+      </c>
+      <c r="AC126" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD126" s="1">
+        <v>0.28011000000000003</v>
+      </c>
+      <c r="AE126" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK126" t="s">
         <v>0</v>
       </c>
@@ -10478,6 +13520,30 @@
         <v>0.18634000000000001</v>
       </c>
       <c r="P127" s="1"/>
+      <c r="X127">
+        <f t="shared" si="3"/>
+        <v>4.8999999999999877E-3</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="4"/>
+        <v>2.5622254758418679E-2</v>
+      </c>
+      <c r="AA127" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB127" s="1">
+        <v>0.28867999999999999</v>
+      </c>
+      <c r="AC127" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD127" s="1">
+        <v>0.28892000000000001</v>
+      </c>
+      <c r="AE127" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK127" t="s">
         <v>1</v>
       </c>
@@ -10503,6 +13569,30 @@
         <v>0.27455000000000002</v>
       </c>
       <c r="P128" s="1"/>
+      <c r="X128">
+        <f t="shared" si="3"/>
+        <v>8.6100000000000065E-3</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="4"/>
+        <v>3.0406837123887576E-2</v>
+      </c>
+      <c r="AA128" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB128" s="1">
+        <v>0.29098000000000002</v>
+      </c>
+      <c r="AC128" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD128" s="1">
+        <v>0.29275000000000001</v>
+      </c>
+      <c r="AE128" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK128" t="s">
         <v>0</v>
       </c>
@@ -10528,6 +13618,30 @@
         <v>0.18007000000000001</v>
       </c>
       <c r="P129" s="1"/>
+      <c r="X129">
+        <f t="shared" si="3"/>
+        <v>2.7599999999999847E-3</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="4"/>
+        <v>1.5095990811135945E-2</v>
+      </c>
+      <c r="AA129" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB129" s="1">
+        <v>0.29751</v>
+      </c>
+      <c r="AC129" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD129" s="1">
+        <v>0.29505999999999999</v>
+      </c>
+      <c r="AE129" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK129" t="s">
         <v>1</v>
       </c>
@@ -10553,6 +13667,30 @@
         <v>0.17432</v>
       </c>
       <c r="P130" s="1"/>
+      <c r="X130">
+        <f t="shared" si="3"/>
+        <v>4.0900000000000103E-3</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" si="4"/>
+        <v>2.2924723950451264E-2</v>
+      </c>
+      <c r="AA130" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB130" s="1">
+        <v>0.30087000000000003</v>
+      </c>
+      <c r="AC130" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD130" s="1">
+        <v>0.29786000000000001</v>
+      </c>
+      <c r="AE130" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="IK130" t="s">
         <v>0</v>
       </c>
@@ -10578,6 +13716,30 @@
         <v>0.16228999999999999</v>
       </c>
       <c r="P131" s="1"/>
+      <c r="X131">
+        <f t="shared" ref="X131:X194" si="6">B131-O131</f>
+        <v>2.6000000000001022E-4</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" ref="Y131:Y194" si="7">ABS(X131/B131)</f>
+        <v>1.5995078437404506E-3</v>
+      </c>
+      <c r="AA131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB131" s="1">
+        <v>0.30087000000000003</v>
+      </c>
+      <c r="AC131" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD131" s="1">
+        <v>0.29894999999999999</v>
+      </c>
+      <c r="AE131" t="b">
+        <f t="shared" ref="AE131:AE194" si="8">AA131=AC131</f>
+        <v>0</v>
+      </c>
       <c r="IK131" t="s">
         <v>0</v>
       </c>
@@ -10603,6 +13765,30 @@
         <v>0.19450000000000001</v>
       </c>
       <c r="P132" s="1"/>
+      <c r="X132">
+        <f t="shared" si="6"/>
+        <v>3.0300000000000049E-3</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" si="7"/>
+        <v>1.5339442110059255E-2</v>
+      </c>
+      <c r="AA132" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB132" s="1">
+        <v>0.30484</v>
+      </c>
+      <c r="AC132" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD132" s="1">
+        <v>0.29969000000000001</v>
+      </c>
+      <c r="AE132" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK132" t="s">
         <v>0</v>
       </c>
@@ -10628,6 +13814,30 @@
         <v>0.18934999999999999</v>
       </c>
       <c r="P133" s="1"/>
+      <c r="X133">
+        <f t="shared" si="6"/>
+        <v>8.6900000000000033E-3</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" si="7"/>
+        <v>4.3880024237527793E-2</v>
+      </c>
+      <c r="AA133" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB133" s="1">
+        <v>0.30528</v>
+      </c>
+      <c r="AC133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD133" s="1">
+        <v>0.30281000000000002</v>
+      </c>
+      <c r="AE133" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK133" t="s">
         <v>0</v>
       </c>
@@ -10653,6 +13863,30 @@
         <v>0.25568999999999997</v>
       </c>
       <c r="P134" s="1"/>
+      <c r="X134">
+        <f t="shared" si="6"/>
+        <v>6.9800000000000417E-3</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" si="7"/>
+        <v>2.6573266836715428E-2</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB134" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="AC134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD134" s="1">
+        <v>0.30303999999999998</v>
+      </c>
+      <c r="AE134" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK134" t="s">
         <v>1</v>
       </c>
@@ -10678,6 +13912,30 @@
         <v>0.18844</v>
       </c>
       <c r="P135" s="1"/>
+      <c r="X135">
+        <f t="shared" si="6"/>
+        <v>1.0199999999999931E-3</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" si="7"/>
+        <v>5.383722157711354E-3</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB135" s="1">
+        <v>0.31551000000000001</v>
+      </c>
+      <c r="AC135" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD135" s="1">
+        <v>0.30492999999999998</v>
+      </c>
+      <c r="AE135" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK135" t="s">
         <v>0</v>
       </c>
@@ -10703,6 +13961,30 @@
         <v>0.19839000000000001</v>
       </c>
       <c r="P136" s="1"/>
+      <c r="X136">
+        <f t="shared" si="6"/>
+        <v>3.7899999999999878E-3</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" si="7"/>
+        <v>1.874567217331085E-2</v>
+      </c>
+      <c r="AA136" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB136" s="1">
+        <v>0.31579000000000002</v>
+      </c>
+      <c r="AC136" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD136" s="1">
+        <v>0.30778</v>
+      </c>
+      <c r="AE136" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK136" t="s">
         <v>0</v>
       </c>
@@ -10728,6 +14010,30 @@
         <v>0.27461999999999998</v>
       </c>
       <c r="P137" s="1"/>
+      <c r="X137">
+        <f t="shared" si="6"/>
+        <v>5.1700000000000079E-3</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="7"/>
+        <v>1.8478144322527638E-2</v>
+      </c>
+      <c r="AA137" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB137" s="1">
+        <v>0.31724999999999998</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD137" s="1">
+        <v>0.30820999999999998</v>
+      </c>
+      <c r="AE137" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK137" t="s">
         <v>0</v>
       </c>
@@ -10753,6 +14059,30 @@
         <v>0.22392000000000001</v>
       </c>
       <c r="P138" s="1"/>
+      <c r="X138">
+        <f t="shared" si="6"/>
+        <v>3.7099999999999911E-3</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" si="7"/>
+        <v>1.6298378948293245E-2</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB138" s="1">
+        <v>0.31897999999999999</v>
+      </c>
+      <c r="AC138" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD138" s="1">
+        <v>0.31007000000000001</v>
+      </c>
+      <c r="AE138" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK138" t="s">
         <v>0</v>
       </c>
@@ -10778,6 +14108,30 @@
         <v>0.16239000000000001</v>
       </c>
       <c r="P139" s="1"/>
+      <c r="X139">
+        <f t="shared" si="6"/>
+        <v>2.44999999999998E-3</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="7"/>
+        <v>1.48628973550108E-2</v>
+      </c>
+      <c r="AA139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB139" s="1">
+        <v>0.32019999999999998</v>
+      </c>
+      <c r="AC139" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD139" s="1">
+        <v>0.31107000000000001</v>
+      </c>
+      <c r="AE139" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK139" t="s">
         <v>0</v>
       </c>
@@ -10803,6 +14157,30 @@
         <v>0.17730000000000001</v>
       </c>
       <c r="P140" s="1"/>
+      <c r="X140">
+        <f t="shared" si="6"/>
+        <v>5.9799999999999853E-3</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" si="7"/>
+        <v>3.2627673505019564E-2</v>
+      </c>
+      <c r="AA140" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB140" s="1">
+        <v>0.32230999999999999</v>
+      </c>
+      <c r="AC140" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD140" s="1">
+        <v>0.31145</v>
+      </c>
+      <c r="AE140" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK140" t="s">
         <v>0</v>
       </c>
@@ -10828,6 +14206,30 @@
         <v>0.19763</v>
       </c>
       <c r="P141" s="1"/>
+      <c r="X141">
+        <f t="shared" si="6"/>
+        <v>3.7999999999999146E-4</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="7"/>
+        <v>1.9190949952022193E-3</v>
+      </c>
+      <c r="AA141" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB141" s="1">
+        <v>0.32341999999999999</v>
+      </c>
+      <c r="AC141" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD141" s="1">
+        <v>0.31420999999999999</v>
+      </c>
+      <c r="AE141" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK141" t="s">
         <v>0</v>
       </c>
@@ -10853,6 +14255,30 @@
         <v>0.23476</v>
       </c>
       <c r="P142" s="1"/>
+      <c r="X142">
+        <f t="shared" si="6"/>
+        <v>4.9200000000000077E-3</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="7"/>
+        <v>2.0527369826435278E-2</v>
+      </c>
+      <c r="AA142" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB142" s="1">
+        <v>0.32518000000000002</v>
+      </c>
+      <c r="AC142" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD142" s="1">
+        <v>0.31474000000000002</v>
+      </c>
+      <c r="AE142" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK142" t="s">
         <v>0</v>
       </c>
@@ -10878,6 +14304,30 @@
         <v>0.23538000000000001</v>
       </c>
       <c r="P143" s="1"/>
+      <c r="X143">
+        <f t="shared" si="6"/>
+        <v>1.9899999999999918E-3</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="7"/>
+        <v>8.383536251421797E-3</v>
+      </c>
+      <c r="AA143" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB143" s="1">
+        <v>0.32834999999999998</v>
+      </c>
+      <c r="AC143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD143" s="1">
+        <v>0.32001000000000002</v>
+      </c>
+      <c r="AE143" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK143" t="s">
         <v>0</v>
       </c>
@@ -10903,6 +14353,30 @@
         <v>0.23416999999999999</v>
       </c>
       <c r="P144" s="1"/>
+      <c r="X144">
+        <f t="shared" si="6"/>
+        <v>6.0199999999999976E-3</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="7"/>
+        <v>2.5063491402639568E-2</v>
+      </c>
+      <c r="AA144" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB144" s="1">
+        <v>0.33384000000000003</v>
+      </c>
+      <c r="AC144" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD144" s="1">
+        <v>0.32008999999999999</v>
+      </c>
+      <c r="AE144" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK144" t="s">
         <v>0</v>
       </c>
@@ -10928,6 +14402,30 @@
         <v>0.23991000000000001</v>
       </c>
       <c r="P145" s="1"/>
+      <c r="X145">
+        <f t="shared" si="6"/>
+        <v>5.5499999999999994E-3</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="7"/>
+        <v>2.2610608653141039E-2</v>
+      </c>
+      <c r="AA145" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>0.33716000000000002</v>
+      </c>
+      <c r="AC145" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>0.33352999999999999</v>
+      </c>
+      <c r="AE145" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK145" t="s">
         <v>0</v>
       </c>
@@ -10953,6 +14451,30 @@
         <v>0.15859999999999999</v>
       </c>
       <c r="P146" s="1"/>
+      <c r="X146">
+        <f t="shared" si="6"/>
+        <v>9.3000000000001415E-4</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="7"/>
+        <v>5.8296245220335616E-3</v>
+      </c>
+      <c r="AA146" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB146" s="1">
+        <v>0.33901999999999999</v>
+      </c>
+      <c r="AC146" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD146" s="1">
+        <v>0.33850999999999998</v>
+      </c>
+      <c r="AE146" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK146" t="s">
         <v>0</v>
       </c>
@@ -10978,6 +14500,30 @@
         <v>0.22842000000000001</v>
       </c>
       <c r="P147" s="1"/>
+      <c r="X147">
+        <f t="shared" si="6"/>
+        <v>3.9999999999999758E-3</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="7"/>
+        <v>1.7210222872386095E-2</v>
+      </c>
+      <c r="AA147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB147" s="1">
+        <v>0.34888000000000002</v>
+      </c>
+      <c r="AC147" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD147" s="1">
+        <v>0.34532000000000002</v>
+      </c>
+      <c r="AE147" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK147" t="s">
         <v>0</v>
       </c>
@@ -11003,6 +14549,30 @@
         <v>0.20982000000000001</v>
       </c>
       <c r="P148" s="1"/>
+      <c r="X148">
+        <f t="shared" si="6"/>
+        <v>1.8900000000000028E-3</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="7"/>
+        <v>8.927306220773713E-3</v>
+      </c>
+      <c r="AA148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>0.35402</v>
+      </c>
+      <c r="AC148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>0.34611999999999998</v>
+      </c>
+      <c r="AE148" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="IK148" t="s">
         <v>0</v>
       </c>
@@ -11028,6 +14598,30 @@
         <v>0.22746</v>
       </c>
       <c r="P149" s="1"/>
+      <c r="X149">
+        <f t="shared" si="6"/>
+        <v>8.77E-3</v>
+      </c>
+      <c r="Y149">
+        <f t="shared" si="7"/>
+        <v>3.7124835964949414E-2</v>
+      </c>
+      <c r="AA149" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>0.35591</v>
+      </c>
+      <c r="AC149" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD149" s="1">
+        <v>0.35154999999999997</v>
+      </c>
+      <c r="AE149" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK149" t="s">
         <v>0</v>
       </c>
@@ -11053,6 +14647,30 @@
         <v>0.19869000000000001</v>
       </c>
       <c r="P150" s="1"/>
+      <c r="X150">
+        <f t="shared" si="6"/>
+        <v>-6.3900000000000068E-3</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" si="7"/>
+        <v>3.3229329173166962E-2</v>
+      </c>
+      <c r="AA150" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB150" s="1">
+        <v>0.36698999999999998</v>
+      </c>
+      <c r="AC150" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD150" s="1">
+        <v>0.35482999999999998</v>
+      </c>
+      <c r="AE150" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK150" t="s">
         <v>0</v>
       </c>
@@ -11078,6 +14696,30 @@
         <v>0.16828000000000001</v>
       </c>
       <c r="P151" s="1"/>
+      <c r="X151">
+        <f t="shared" si="6"/>
+        <v>3.2699999999999951E-3</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="7"/>
+        <v>1.906149810550857E-2</v>
+      </c>
+      <c r="AA151" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>0.36853000000000002</v>
+      </c>
+      <c r="AC151" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD151" s="1">
+        <v>0.35754999999999998</v>
+      </c>
+      <c r="AE151" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK151" t="s">
         <v>0</v>
       </c>
@@ -11103,6 +14745,30 @@
         <v>0.20760000000000001</v>
       </c>
       <c r="P152" s="1"/>
+      <c r="X152">
+        <f t="shared" si="6"/>
+        <v>-3.1599999999999961E-3</v>
+      </c>
+      <c r="Y152">
+        <f t="shared" si="7"/>
+        <v>1.5456857757777323E-2</v>
+      </c>
+      <c r="AA152" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB152" s="1">
+        <v>0.38524999999999998</v>
+      </c>
+      <c r="AC152" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD152" s="1">
+        <v>0.35822999999999999</v>
+      </c>
+      <c r="AE152" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK152" t="s">
         <v>0</v>
       </c>
@@ -11128,6 +14794,30 @@
         <v>0.24887999999999999</v>
       </c>
       <c r="P153" s="1"/>
+      <c r="X153">
+        <f t="shared" si="6"/>
+        <v>2.1100000000000008E-3</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="7"/>
+        <v>8.406709430654611E-3</v>
+      </c>
+      <c r="AA153" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB153" s="1">
+        <v>0.3891</v>
+      </c>
+      <c r="AC153" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD153" s="1">
+        <v>0.36892000000000003</v>
+      </c>
+      <c r="AE153" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK153" t="s">
         <v>0</v>
       </c>
@@ -11153,6 +14843,30 @@
         <v>0.21953</v>
       </c>
       <c r="P154" s="1"/>
+      <c r="X154">
+        <f t="shared" si="6"/>
+        <v>1.1919999999999986E-2</v>
+      </c>
+      <c r="Y154">
+        <f t="shared" si="7"/>
+        <v>5.1501404190969914E-2</v>
+      </c>
+      <c r="AA154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB154" s="1">
+        <v>0.39245000000000002</v>
+      </c>
+      <c r="AC154" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD154" s="1">
+        <v>0.38108999999999998</v>
+      </c>
+      <c r="AE154" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK154" t="s">
         <v>0</v>
       </c>
@@ -11178,6 +14892,30 @@
         <v>0.18495</v>
       </c>
       <c r="P155" s="1"/>
+      <c r="X155">
+        <f t="shared" si="6"/>
+        <v>1.0099999999999831E-3</v>
+      </c>
+      <c r="Y155">
+        <f t="shared" si="7"/>
+        <v>5.4312755431274642E-3</v>
+      </c>
+      <c r="AA155" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>0.39248</v>
+      </c>
+      <c r="AC155" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD155" s="1">
+        <v>0.38205</v>
+      </c>
+      <c r="AE155" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK155" t="s">
         <v>0</v>
       </c>
@@ -11203,6 +14941,30 @@
         <v>0.17568</v>
       </c>
       <c r="P156" s="1"/>
+      <c r="X156">
+        <f t="shared" si="6"/>
+        <v>2.6700000000000057E-3</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" si="7"/>
+        <v>1.4970563498738466E-2</v>
+      </c>
+      <c r="AA156" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB156" s="1">
+        <v>0.40357999999999999</v>
+      </c>
+      <c r="AC156" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD156" s="1">
+        <v>0.38801999999999998</v>
+      </c>
+      <c r="AE156" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK156" t="s">
         <v>0</v>
       </c>
@@ -11228,6 +14990,30 @@
         <v>0.24729000000000001</v>
       </c>
       <c r="P157" s="1"/>
+      <c r="X157">
+        <f t="shared" si="6"/>
+        <v>1.2299999999999978E-2</v>
+      </c>
+      <c r="Y157">
+        <f t="shared" si="7"/>
+        <v>4.7382410724604099E-2</v>
+      </c>
+      <c r="AA157" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>0.40431</v>
+      </c>
+      <c r="AC157" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD157" s="1">
+        <v>0.39121</v>
+      </c>
+      <c r="AE157" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK157" t="s">
         <v>0</v>
       </c>
@@ -11253,6 +15039,30 @@
         <v>0.22725999999999999</v>
       </c>
       <c r="P158" s="1"/>
+      <c r="X158">
+        <f t="shared" si="6"/>
+        <v>1.0320000000000024E-2</v>
+      </c>
+      <c r="Y158">
+        <f t="shared" si="7"/>
+        <v>4.3437999831635758E-2</v>
+      </c>
+      <c r="AA158" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>0.40544999999999998</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD158" s="1">
+        <v>0.39657999999999999</v>
+      </c>
+      <c r="AE158" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK158" t="s">
         <v>0</v>
       </c>
@@ -11278,6 +15088,30 @@
         <v>0.18476000000000001</v>
       </c>
       <c r="P159" s="1"/>
+      <c r="X159">
+        <f t="shared" si="6"/>
+        <v>-8.900000000000019E-4</v>
+      </c>
+      <c r="Y159">
+        <f t="shared" si="7"/>
+        <v>4.840376352858008E-3</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>0.40601999999999999</v>
+      </c>
+      <c r="AC159" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD159" s="1">
+        <v>0.40112999999999999</v>
+      </c>
+      <c r="AE159" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK159" t="s">
         <v>0</v>
       </c>
@@ -11303,6 +15137,30 @@
         <v>0.16896</v>
       </c>
       <c r="P160" s="1"/>
+      <c r="X160">
+        <f t="shared" si="6"/>
+        <v>-8.0999999999999961E-3</v>
+      </c>
+      <c r="Y160">
+        <f t="shared" si="7"/>
+        <v>5.0354345393509858E-2</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB160" s="1">
+        <v>0.41926000000000002</v>
+      </c>
+      <c r="AC160" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD160" s="1">
+        <v>0.40150999999999998</v>
+      </c>
+      <c r="AE160" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK160" t="s">
         <v>0</v>
       </c>
@@ -11328,6 +15186,30 @@
         <v>0.17887</v>
       </c>
       <c r="P161" s="1"/>
+      <c r="X161">
+        <f t="shared" si="6"/>
+        <v>3.0999999999999917E-3</v>
+      </c>
+      <c r="Y161">
+        <f t="shared" si="7"/>
+        <v>1.7035775127768268E-2</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB161" s="1">
+        <v>0.41985</v>
+      </c>
+      <c r="AC161" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD161" s="1">
+        <v>0.40161999999999998</v>
+      </c>
+      <c r="AE161" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK161" t="s">
         <v>0</v>
       </c>
@@ -11353,6 +15235,30 @@
         <v>0.19681000000000001</v>
       </c>
       <c r="P162" s="1"/>
+      <c r="X162">
+        <f t="shared" si="6"/>
+        <v>7.6999999999999291E-4</v>
+      </c>
+      <c r="Y162">
+        <f t="shared" si="7"/>
+        <v>3.897155582548805E-3</v>
+      </c>
+      <c r="AA162" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB162" s="1">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="AC162" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD162" s="1">
+        <v>0.40709000000000001</v>
+      </c>
+      <c r="AE162" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK162" t="s">
         <v>0</v>
       </c>
@@ -11378,6 +15284,30 @@
         <v>0.16742000000000001</v>
       </c>
       <c r="P163" s="1"/>
+      <c r="X163">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="7"/>
+        <v>1.1944577161963835E-4</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>0.42354999999999998</v>
+      </c>
+      <c r="AC163" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD163" s="1">
+        <v>0.41477999999999998</v>
+      </c>
+      <c r="AE163" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK163" t="s">
         <v>0</v>
       </c>
@@ -11403,6 +15333,30 @@
         <v>0.24837000000000001</v>
       </c>
       <c r="P164" s="1"/>
+      <c r="X164">
+        <f t="shared" si="6"/>
+        <v>2.5400000000000145E-3</v>
+      </c>
+      <c r="Y164">
+        <f t="shared" si="7"/>
+        <v>1.0123151727711189E-2</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB164" s="1">
+        <v>0.42981000000000003</v>
+      </c>
+      <c r="AC164" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD164" s="1">
+        <v>0.41577999999999998</v>
+      </c>
+      <c r="AE164" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK164" t="s">
         <v>0</v>
       </c>
@@ -11428,6 +15382,30 @@
         <v>0.19744999999999999</v>
       </c>
       <c r="P165" s="1"/>
+      <c r="X165">
+        <f t="shared" si="6"/>
+        <v>2.380000000000021E-3</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="7"/>
+        <v>1.191012360506441E-2</v>
+      </c>
+      <c r="AA165" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB165" s="1">
+        <v>0.43364999999999998</v>
+      </c>
+      <c r="AC165" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD165" s="1">
+        <v>0.41826000000000002</v>
+      </c>
+      <c r="AE165" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="IK165" t="s">
         <v>0</v>
       </c>
@@ -11453,6 +15431,30 @@
         <v>0.19519</v>
       </c>
       <c r="P166" s="1"/>
+      <c r="X166">
+        <f t="shared" si="6"/>
+        <v>4.599999999999882E-4</v>
+      </c>
+      <c r="Y166">
+        <f t="shared" si="7"/>
+        <v>2.3511372348581049E-3</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB166" s="1">
+        <v>0.43423</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD166" s="1">
+        <v>0.42038999999999999</v>
+      </c>
+      <c r="AE166" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK166" t="s">
         <v>0</v>
       </c>
@@ -11478,6 +15480,30 @@
         <v>0.20710000000000001</v>
       </c>
       <c r="P167" s="1"/>
+      <c r="X167">
+        <f t="shared" si="6"/>
+        <v>4.0599999999999803E-3</v>
+      </c>
+      <c r="Y167">
+        <f t="shared" si="7"/>
+        <v>1.9227126349687349E-2</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB167" s="1">
+        <v>0.44105</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD167" s="1">
+        <v>0.42283999999999999</v>
+      </c>
+      <c r="AE167" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK167" t="s">
         <v>0</v>
       </c>
@@ -11503,6 +15529,30 @@
         <v>0.22234000000000001</v>
       </c>
       <c r="P168" s="1"/>
+      <c r="X168">
+        <f t="shared" si="6"/>
+        <v>2.140000000000003E-3</v>
+      </c>
+      <c r="Y168">
+        <f t="shared" si="7"/>
+        <v>9.5331432644333702E-3</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB168" s="1">
+        <v>0.44133</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD168" s="1">
+        <v>0.42912</v>
+      </c>
+      <c r="AE168" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK168" t="s">
         <v>0</v>
       </c>
@@ -11528,6 +15578,30 @@
         <v>0.18248</v>
       </c>
       <c r="P169" s="1"/>
+      <c r="X169">
+        <f t="shared" si="6"/>
+        <v>1.3700000000000101E-3</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="7"/>
+        <v>7.4517269513190649E-3</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB169" s="1">
+        <v>0.44868000000000002</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD169" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="AE169" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK169" t="s">
         <v>0</v>
       </c>
@@ -11553,6 +15627,30 @@
         <v>0.22191</v>
       </c>
       <c r="P170" s="1"/>
+      <c r="X170">
+        <f t="shared" si="6"/>
+        <v>-7.9599999999999949E-3</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" si="7"/>
+        <v>3.7204954428604789E-2</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB170" s="1">
+        <v>0.45956000000000002</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD170" s="1">
+        <v>0.45467000000000002</v>
+      </c>
+      <c r="AE170" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK170" t="s">
         <v>0</v>
       </c>
@@ -11578,6 +15676,30 @@
         <v>0.18121000000000001</v>
       </c>
       <c r="P171" s="1"/>
+      <c r="X171">
+        <f t="shared" si="6"/>
+        <v>3.3099999999999796E-3</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="7"/>
+        <v>1.7938434858009861E-2</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB171" s="1">
+        <v>0.46493000000000001</v>
+      </c>
+      <c r="AC171" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD171" s="1">
+        <v>0.45578000000000002</v>
+      </c>
+      <c r="AE171" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK171" t="s">
         <v>0</v>
       </c>
@@ -11603,6 +15725,30 @@
         <v>0.19177</v>
       </c>
       <c r="P172" s="1"/>
+      <c r="X172">
+        <f t="shared" si="6"/>
+        <v>7.8799999999999981E-3</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="7"/>
+        <v>3.9469070874029545E-2</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB172" s="1">
+        <v>0.46517999999999998</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD172" s="1">
+        <v>0.45696999999999999</v>
+      </c>
+      <c r="AE172" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK172" t="s">
         <v>0</v>
       </c>
@@ -11628,6 +15774,30 @@
         <v>0.19125</v>
       </c>
       <c r="P173" s="1"/>
+      <c r="X173">
+        <f t="shared" si="6"/>
+        <v>7.7399999999999969E-3</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="7"/>
+        <v>3.8896426956128431E-2</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB173" s="1">
+        <v>0.46526000000000001</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD173" s="1">
+        <v>0.46078000000000002</v>
+      </c>
+      <c r="AE173" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="IK173" t="s">
         <v>1</v>
       </c>
@@ -11653,6 +15823,30 @@
         <v>0.20421</v>
       </c>
       <c r="P174" s="1"/>
+      <c r="X174">
+        <f t="shared" si="6"/>
+        <v>8.0300000000000094E-3</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="7"/>
+        <v>3.7834526950621977E-2</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB174" s="1">
+        <v>0.46610000000000001</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD174" s="1">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="AE174" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK174" t="s">
         <v>0</v>
       </c>
@@ -11678,6 +15872,30 @@
         <v>0.17773</v>
       </c>
       <c r="P175" s="1"/>
+      <c r="X175">
+        <f t="shared" si="6"/>
+        <v>2.4299999999999877E-3</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="7"/>
+        <v>1.3488010657193539E-2</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB175" s="1">
+        <v>0.48533999999999999</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD175" s="1">
+        <v>0.48035</v>
+      </c>
+      <c r="AE175" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK175" t="s">
         <v>0</v>
       </c>
@@ -11703,6 +15921,30 @@
         <v>0.2046</v>
       </c>
       <c r="P176" s="1"/>
+      <c r="X176">
+        <f t="shared" si="6"/>
+        <v>2.7999999999999969E-3</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" si="7"/>
+        <v>1.3500482160077132E-2</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB176" s="1">
+        <v>0.49132999999999999</v>
+      </c>
+      <c r="AC176" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD176" s="1">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="AE176" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK176" t="s">
         <v>0</v>
       </c>
@@ -11728,6 +15970,30 @@
         <v>0.15840000000000001</v>
       </c>
       <c r="P177" s="1"/>
+      <c r="X177">
+        <f t="shared" si="6"/>
+        <v>1.6599999999999948E-3</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="7"/>
+        <v>1.0371110833437428E-2</v>
+      </c>
+      <c r="AA177" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB177" s="1">
+        <v>0.50199000000000005</v>
+      </c>
+      <c r="AC177" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD177" s="1">
+        <v>0.49952000000000002</v>
+      </c>
+      <c r="AE177" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK177" t="s">
         <v>0</v>
       </c>
@@ -11753,6 +16019,30 @@
         <v>0.20108000000000001</v>
       </c>
       <c r="P178" s="1"/>
+      <c r="X178">
+        <f t="shared" si="6"/>
+        <v>5.7399999999999951E-3</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="7"/>
+        <v>2.7753602166134778E-2</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB178" s="1">
+        <v>0.50200999999999996</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD178" s="1">
+        <v>0.51217000000000001</v>
+      </c>
+      <c r="AE178" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK178" t="s">
         <v>0</v>
       </c>
@@ -11778,6 +16068,30 @@
         <v>0.26878999999999997</v>
       </c>
       <c r="P179" s="1"/>
+      <c r="X179">
+        <f t="shared" si="6"/>
+        <v>1.9890000000000019E-2</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="7"/>
+        <v>6.8899819869752035E-2</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB179" s="1">
+        <v>0.50892000000000004</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD179" s="1">
+        <v>0.52041000000000004</v>
+      </c>
+      <c r="AE179" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK179" t="s">
         <v>0</v>
       </c>
@@ -11803,6 +16117,30 @@
         <v>0.22514000000000001</v>
       </c>
       <c r="P180" s="1"/>
+      <c r="X180">
+        <f t="shared" si="6"/>
+        <v>8.1199999999999883E-3</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="7"/>
+        <v>3.4810940581325507E-2</v>
+      </c>
+      <c r="AA180" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB180" s="1">
+        <v>0.55884</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD180" s="1">
+        <v>0.53683000000000003</v>
+      </c>
+      <c r="AE180" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="IK180" t="s">
         <v>0</v>
       </c>
@@ -11828,6 +16166,30 @@
         <v>0.17577999999999999</v>
       </c>
       <c r="P181" s="1"/>
+      <c r="X181">
+        <f t="shared" si="6"/>
+        <v>3.5300000000000054E-3</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="7"/>
+        <v>1.9686576320339107E-2</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB181" s="1">
+        <v>0.58489000000000002</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD181" s="1">
+        <v>0.58755999999999997</v>
+      </c>
+      <c r="AE181" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="IK181" t="s">
         <v>0</v>
       </c>
@@ -11853,6 +16215,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P182" s="1"/>
+      <c r="X182">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA182" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB182" s="1">
+        <v>1.2545299999999999</v>
+      </c>
+      <c r="AC182" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD182" s="1">
+        <v>1.10198</v>
+      </c>
+      <c r="AE182" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK182" t="s">
         <v>0</v>
       </c>
@@ -11878,6 +16264,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P183" s="1"/>
+      <c r="X183">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA183" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB183" s="1">
+        <v>1.40238</v>
+      </c>
+      <c r="AC183" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD183" s="1">
+        <v>1.30016</v>
+      </c>
+      <c r="AE183" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK183" t="s">
         <v>0</v>
       </c>
@@ -11903,6 +16313,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P184" s="1"/>
+      <c r="X184">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA184" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB184" s="1">
+        <v>1.601</v>
+      </c>
+      <c r="AC184" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD184" s="1">
+        <v>1.6600999999999999</v>
+      </c>
+      <c r="AE184" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK184" t="s">
         <v>0</v>
       </c>
@@ -11928,6 +16362,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P185" s="1"/>
+      <c r="X185">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y185">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA185" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB185" s="1">
+        <v>1.63435</v>
+      </c>
+      <c r="AC185" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD185" s="1">
+        <v>1.7455799999999999</v>
+      </c>
+      <c r="AE185" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK185" t="s">
         <v>0</v>
       </c>
@@ -11953,6 +16411,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P186" s="1"/>
+      <c r="X186">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y186">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA186" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB186" s="1">
+        <v>1.6694</v>
+      </c>
+      <c r="AC186" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD186" s="1">
+        <v>1.77068</v>
+      </c>
+      <c r="AE186" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="IK186" t="s">
         <v>0</v>
       </c>
@@ -11978,6 +16460,30 @@
         <v>0.16164000000000001</v>
       </c>
       <c r="P187" s="1"/>
+      <c r="X187">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y187">
+        <f t="shared" si="7"/>
+        <v>1.2371644191508255E-4</v>
+      </c>
+      <c r="AA187" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB187" s="1">
+        <v>1.73377</v>
+      </c>
+      <c r="AC187" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD187" s="1">
+        <v>1.79833</v>
+      </c>
+      <c r="AE187" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK187" t="s">
         <v>0</v>
       </c>
@@ -12003,6 +16509,30 @@
         <v>0.16297</v>
       </c>
       <c r="P188" s="1"/>
+      <c r="X188">
+        <f t="shared" si="6"/>
+        <v>3.0000000000002247E-5</v>
+      </c>
+      <c r="Y188">
+        <f t="shared" si="7"/>
+        <v>1.8404907975461501E-4</v>
+      </c>
+      <c r="AA188" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB188" s="1">
+        <v>1.74339</v>
+      </c>
+      <c r="AC188" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD188" s="1">
+        <v>1.8176000000000001</v>
+      </c>
+      <c r="AE188" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK188" t="s">
         <v>0</v>
       </c>
@@ -12028,6 +16558,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P189" s="1"/>
+      <c r="X189">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA189" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB189" s="1">
+        <v>1.7610300000000001</v>
+      </c>
+      <c r="AC189" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD189" s="1">
+        <v>1.8790199999999999</v>
+      </c>
+      <c r="AE189" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK189" t="s">
         <v>0</v>
       </c>
@@ -12053,6 +16607,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P190" s="1"/>
+      <c r="X190">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y190">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB190" s="1">
+        <v>1.8273600000000001</v>
+      </c>
+      <c r="AC190" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD190" s="1">
+        <v>1.9535199999999999</v>
+      </c>
+      <c r="AE190" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK190" t="s">
         <v>0</v>
       </c>
@@ -12078,6 +16656,30 @@
         <v>0.16818</v>
       </c>
       <c r="P191" s="1"/>
+      <c r="X191">
+        <f t="shared" si="6"/>
+        <v>2.2199999999999998E-3</v>
+      </c>
+      <c r="Y191">
+        <f t="shared" si="7"/>
+        <v>1.3028169014084505E-2</v>
+      </c>
+      <c r="AA191" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB191" s="1">
+        <v>2.0527299999999999</v>
+      </c>
+      <c r="AC191" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD191" s="1">
+        <v>1.98064</v>
+      </c>
+      <c r="AE191" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK191" t="s">
         <v>0</v>
       </c>
@@ -12103,6 +16705,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P192" s="1"/>
+      <c r="X192">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y192">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB192" s="1">
+        <v>2.0620599999999998</v>
+      </c>
+      <c r="AC192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD192" s="1">
+        <v>1.9823200000000001</v>
+      </c>
+      <c r="AE192" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK192" t="s">
         <v>0</v>
       </c>
@@ -12128,6 +16754,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P193" s="1"/>
+      <c r="X193">
+        <f t="shared" si="6"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y193">
+        <f t="shared" si="7"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA193" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB193" s="1">
+        <v>2.1071300000000002</v>
+      </c>
+      <c r="AC193" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD193" s="1">
+        <v>2.0829</v>
+      </c>
+      <c r="AE193" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK193" t="s">
         <v>0</v>
       </c>
@@ -12153,6 +16803,30 @@
         <v>0.16297</v>
       </c>
       <c r="P194" s="1"/>
+      <c r="X194">
+        <f t="shared" si="6"/>
+        <v>8.5999999999999965E-4</v>
+      </c>
+      <c r="Y194">
+        <f t="shared" si="7"/>
+        <v>5.2493438320209956E-3</v>
+      </c>
+      <c r="AA194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB194" s="1">
+        <v>2.1688000000000001</v>
+      </c>
+      <c r="AC194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD194" s="1">
+        <v>2.2844899999999999</v>
+      </c>
+      <c r="AE194" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="IK194" t="s">
         <v>0</v>
       </c>
@@ -12178,6 +16852,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P195" s="1"/>
+      <c r="X195">
+        <f t="shared" ref="X195:X241" si="9">B195-O195</f>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y195">
+        <f t="shared" ref="Y195:Y241" si="10">ABS(X195/B195)</f>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB195" s="1">
+        <v>2.2152400000000001</v>
+      </c>
+      <c r="AC195" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD195" s="1">
+        <v>2.2983199999999999</v>
+      </c>
+      <c r="AE195" t="b">
+        <f t="shared" ref="AE195:AE241" si="11">AA195=AC195</f>
+        <v>0</v>
+      </c>
       <c r="IK195" t="s">
         <v>0</v>
       </c>
@@ -12203,6 +16901,30 @@
         <v>0.16220999999999999</v>
       </c>
       <c r="P196" s="1"/>
+      <c r="X196">
+        <f t="shared" si="9"/>
+        <v>7.3000000000000842E-4</v>
+      </c>
+      <c r="Y196">
+        <f t="shared" si="10"/>
+        <v>4.4801767521787678E-3</v>
+      </c>
+      <c r="AA196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB196" s="1">
+        <v>2.3757999999999999</v>
+      </c>
+      <c r="AC196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD196" s="1">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="AE196" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK196" t="s">
         <v>0</v>
       </c>
@@ -12228,6 +16950,30 @@
         <v>0.16297</v>
       </c>
       <c r="P197" s="1"/>
+      <c r="X197">
+        <f t="shared" si="9"/>
+        <v>8.5999999999999965E-4</v>
+      </c>
+      <c r="Y197">
+        <f t="shared" si="10"/>
+        <v>5.2493438320209956E-3</v>
+      </c>
+      <c r="AA197" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB197" s="1">
+        <v>2.4292500000000001</v>
+      </c>
+      <c r="AC197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD197" s="1">
+        <v>2.3148200000000001</v>
+      </c>
+      <c r="AE197" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK197" t="s">
         <v>0</v>
       </c>
@@ -12253,6 +16999,30 @@
         <v>0.18604000000000001</v>
       </c>
       <c r="P198" s="1"/>
+      <c r="X198">
+        <f t="shared" si="9"/>
+        <v>1.0599999999999776E-3</v>
+      </c>
+      <c r="Y198">
+        <f t="shared" si="10"/>
+        <v>5.665419561731575E-3</v>
+      </c>
+      <c r="AA198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB198" s="1">
+        <v>2.4638</v>
+      </c>
+      <c r="AC198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD198" s="1">
+        <v>2.3363399999999999</v>
+      </c>
+      <c r="AE198" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK198" t="s">
         <v>0</v>
       </c>
@@ -12278,6 +17048,30 @@
         <v>0.16597000000000001</v>
       </c>
       <c r="P199" s="1"/>
+      <c r="X199">
+        <f t="shared" si="9"/>
+        <v>3.0000000000002247E-5</v>
+      </c>
+      <c r="Y199">
+        <f t="shared" si="10"/>
+        <v>1.8072289156627859E-4</v>
+      </c>
+      <c r="AA199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB199" s="1">
+        <v>2.5304899999999999</v>
+      </c>
+      <c r="AC199" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD199" s="1">
+        <v>2.5101599999999999</v>
+      </c>
+      <c r="AE199" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK199" t="s">
         <v>0</v>
       </c>
@@ -12303,6 +17097,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P200" s="1"/>
+      <c r="X200">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y200">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB200" s="1">
+        <v>2.5751900000000001</v>
+      </c>
+      <c r="AC200" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD200" s="1">
+        <v>2.5497000000000001</v>
+      </c>
+      <c r="AE200" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK200" t="s">
         <v>0</v>
       </c>
@@ -12328,6 +17146,30 @@
         <v>0.19631000000000001</v>
       </c>
       <c r="P201" s="1"/>
+      <c r="X201">
+        <f t="shared" si="9"/>
+        <v>2.9999999999974492E-5</v>
+      </c>
+      <c r="Y201">
+        <f t="shared" si="10"/>
+        <v>1.5279616990921104E-4</v>
+      </c>
+      <c r="AA201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB201" s="1">
+        <v>2.6625200000000002</v>
+      </c>
+      <c r="AC201" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD201" s="1">
+        <v>2.6628400000000001</v>
+      </c>
+      <c r="AE201" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK201" t="s">
         <v>0</v>
       </c>
@@ -12353,6 +17195,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P202" s="1"/>
+      <c r="X202">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y202">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB202" s="1">
+        <v>2.7848799999999998</v>
+      </c>
+      <c r="AC202" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD202" s="1">
+        <v>2.6991700000000001</v>
+      </c>
+      <c r="AE202" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK202" t="s">
         <v>0</v>
       </c>
@@ -12378,6 +17244,30 @@
         <v>0.19631000000000001</v>
       </c>
       <c r="P203" s="1"/>
+      <c r="X203">
+        <f t="shared" si="9"/>
+        <v>2.9999999999974492E-5</v>
+      </c>
+      <c r="Y203">
+        <f t="shared" si="10"/>
+        <v>1.5279616990921104E-4</v>
+      </c>
+      <c r="AA203" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB203" s="1">
+        <v>2.79413</v>
+      </c>
+      <c r="AC203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD203" s="1">
+        <v>2.7233800000000001</v>
+      </c>
+      <c r="AE203" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK203" t="s">
         <v>0</v>
       </c>
@@ -12403,6 +17293,30 @@
         <v>0.16109999999999999</v>
       </c>
       <c r="P204" s="1"/>
+      <c r="X204">
+        <f t="shared" si="9"/>
+        <v>2.7300000000000102E-3</v>
+      </c>
+      <c r="Y204">
+        <f t="shared" si="10"/>
+        <v>1.6663614722578345E-2</v>
+      </c>
+      <c r="AA204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB204" s="1">
+        <v>2.8421799999999999</v>
+      </c>
+      <c r="AC204" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD204" s="1">
+        <v>2.7531099999999999</v>
+      </c>
+      <c r="AE204" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK204" t="s">
         <v>0</v>
       </c>
@@ -12428,6 +17342,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P205" s="1"/>
+      <c r="X205">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y205">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB205" s="1">
+        <v>2.8616000000000001</v>
+      </c>
+      <c r="AC205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD205" s="1">
+        <v>2.7790400000000002</v>
+      </c>
+      <c r="AE205" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK205" t="s">
         <v>0</v>
       </c>
@@ -12453,6 +17391,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P206" s="1"/>
+      <c r="X206">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y206">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB206" s="1">
+        <v>2.87365</v>
+      </c>
+      <c r="AC206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD206" s="1">
+        <v>2.7830400000000002</v>
+      </c>
+      <c r="AE206" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK206" t="s">
         <v>0</v>
       </c>
@@ -12478,6 +17440,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P207" s="1"/>
+      <c r="X207">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y207">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA207" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB207" s="1">
+        <v>2.903</v>
+      </c>
+      <c r="AC207" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD207" s="1">
+        <v>2.81664</v>
+      </c>
+      <c r="AE207" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK207" t="s">
         <v>0</v>
       </c>
@@ -12503,6 +17489,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P208" s="1"/>
+      <c r="X208">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y208">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA208" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB208" s="1">
+        <v>2.9130799999999999</v>
+      </c>
+      <c r="AC208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD208" s="1">
+        <v>2.89167</v>
+      </c>
+      <c r="AE208" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK208" t="s">
         <v>0</v>
       </c>
@@ -12528,6 +17538,30 @@
         <v>0.16020000000000001</v>
       </c>
       <c r="P209" s="1"/>
+      <c r="X209">
+        <f t="shared" si="9"/>
+        <v>4.8999999999999044E-4</v>
+      </c>
+      <c r="Y209">
+        <f t="shared" si="10"/>
+        <v>3.0493496795070659E-3</v>
+      </c>
+      <c r="AA209" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB209" s="1">
+        <v>2.9159099999999998</v>
+      </c>
+      <c r="AC209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD209" s="1">
+        <v>2.9010400000000001</v>
+      </c>
+      <c r="AE209" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK209" t="s">
         <v>0</v>
       </c>
@@ -12553,6 +17587,30 @@
         <v>0.15981000000000001</v>
       </c>
       <c r="P210" s="1"/>
+      <c r="X210">
+        <f t="shared" si="9"/>
+        <v>8.2999999999999741E-4</v>
+      </c>
+      <c r="Y210">
+        <f t="shared" si="10"/>
+        <v>5.1668326693226924E-3</v>
+      </c>
+      <c r="AA210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB210" s="1">
+        <v>2.9361999999999999</v>
+      </c>
+      <c r="AC210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD210" s="1">
+        <v>2.9675400000000001</v>
+      </c>
+      <c r="AE210" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK210" t="s">
         <v>0</v>
       </c>
@@ -12578,6 +17636,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P211" s="1"/>
+      <c r="X211">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y211">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA211" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB211" s="1">
+        <v>2.9442599999999999</v>
+      </c>
+      <c r="AC211" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD211" s="1">
+        <v>2.9722900000000001</v>
+      </c>
+      <c r="AE211" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK211" t="s">
         <v>0</v>
       </c>
@@ -12603,6 +17685,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P212" s="1"/>
+      <c r="X212">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y212">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA212" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB212" s="1">
+        <v>2.9762200000000001</v>
+      </c>
+      <c r="AC212" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD212" s="1">
+        <v>3.0195400000000001</v>
+      </c>
+      <c r="AE212" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK212" t="s">
         <v>0</v>
       </c>
@@ -12628,6 +17734,30 @@
         <v>0.17410999999999999</v>
       </c>
       <c r="P213" s="1"/>
+      <c r="X213">
+        <f t="shared" si="9"/>
+        <v>3.0000000000002247E-5</v>
+      </c>
+      <c r="Y213">
+        <f t="shared" si="10"/>
+        <v>1.7227518088895285E-4</v>
+      </c>
+      <c r="AA213" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB213" s="1">
+        <v>3.0370200000000001</v>
+      </c>
+      <c r="AC213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD213" s="1">
+        <v>3.0284599999999999</v>
+      </c>
+      <c r="AE213" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK213" t="s">
         <v>0</v>
       </c>
@@ -12653,6 +17783,30 @@
         <v>0.17427999999999999</v>
       </c>
       <c r="P214" s="1"/>
+      <c r="X214">
+        <f t="shared" si="9"/>
+        <v>4.1899999999999993E-3</v>
+      </c>
+      <c r="Y214">
+        <f t="shared" si="10"/>
+        <v>2.3477335126351764E-2</v>
+      </c>
+      <c r="AA214" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB214" s="1">
+        <v>3.0764399999999998</v>
+      </c>
+      <c r="AC214" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD214" s="1">
+        <v>3.08839</v>
+      </c>
+      <c r="AE214" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK214" t="s">
         <v>0</v>
       </c>
@@ -12678,6 +17832,30 @@
         <v>0.17155000000000001</v>
       </c>
       <c r="P215" s="1"/>
+      <c r="X215">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y215">
+        <f t="shared" si="10"/>
+        <v>1.1657049600741532E-4</v>
+      </c>
+      <c r="AA215" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB215" s="1">
+        <v>3.09646</v>
+      </c>
+      <c r="AC215" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD215" s="1">
+        <v>3.09775</v>
+      </c>
+      <c r="AE215" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK215" t="s">
         <v>0</v>
       </c>
@@ -12703,6 +17881,30 @@
         <v>0.17605999999999999</v>
       </c>
       <c r="P216" s="1"/>
+      <c r="X216">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y216">
+        <f t="shared" si="10"/>
+        <v>1.1358473421167792E-4</v>
+      </c>
+      <c r="AA216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB216" s="1">
+        <v>3.11042</v>
+      </c>
+      <c r="AC216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD216" s="1">
+        <v>3.15951</v>
+      </c>
+      <c r="AE216" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK216" t="s">
         <v>0</v>
       </c>
@@ -12728,6 +17930,30 @@
         <v>0.17410999999999999</v>
       </c>
       <c r="P217" s="1"/>
+      <c r="X217">
+        <f t="shared" si="9"/>
+        <v>3.0000000000002247E-5</v>
+      </c>
+      <c r="Y217">
+        <f t="shared" si="10"/>
+        <v>1.7227518088895285E-4</v>
+      </c>
+      <c r="AA217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB217" s="1">
+        <v>3.1219800000000002</v>
+      </c>
+      <c r="AC217" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD217" s="1">
+        <v>3.1871800000000001</v>
+      </c>
+      <c r="AE217" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK217" t="s">
         <v>0</v>
       </c>
@@ -12753,6 +17979,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P218" s="1"/>
+      <c r="X218">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y218">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA218" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB218" s="1">
+        <v>3.1593100000000001</v>
+      </c>
+      <c r="AC218" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD218" s="1">
+        <v>3.2353900000000002</v>
+      </c>
+      <c r="AE218" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK218" t="s">
         <v>0</v>
       </c>
@@ -12778,6 +18028,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P219" s="1"/>
+      <c r="X219">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y219">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA219" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB219" s="1">
+        <v>3.2638400000000001</v>
+      </c>
+      <c r="AC219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD219" s="1">
+        <v>3.2437999999999998</v>
+      </c>
+      <c r="AE219" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK219" t="s">
         <v>0</v>
       </c>
@@ -12803,6 +18077,30 @@
         <v>0.16297</v>
       </c>
       <c r="P220" s="1"/>
+      <c r="X220">
+        <f t="shared" si="9"/>
+        <v>3.0000000000002247E-5</v>
+      </c>
+      <c r="Y220">
+        <f t="shared" si="10"/>
+        <v>1.8404907975461501E-4</v>
+      </c>
+      <c r="AA220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB220" s="1">
+        <v>3.3025600000000002</v>
+      </c>
+      <c r="AC220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD220" s="1">
+        <v>3.3929800000000001</v>
+      </c>
+      <c r="AE220" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK220" t="s">
         <v>0</v>
       </c>
@@ -12828,6 +18126,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P221" s="1"/>
+      <c r="X221">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y221">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA221" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB221" s="1">
+        <v>3.6810399999999999</v>
+      </c>
+      <c r="AC221" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD221" s="1">
+        <v>3.54339</v>
+      </c>
+      <c r="AE221" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK221" t="s">
         <v>0</v>
       </c>
@@ -12853,6 +18175,30 @@
         <v>0.16431999999999999</v>
       </c>
       <c r="P222" s="1"/>
+      <c r="X222">
+        <f t="shared" si="9"/>
+        <v>1.0900000000000076E-3</v>
+      </c>
+      <c r="Y222">
+        <f t="shared" si="10"/>
+        <v>6.5896862342059584E-3</v>
+      </c>
+      <c r="AA222" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB222" s="1">
+        <v>3.7480199999999999</v>
+      </c>
+      <c r="AC222" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD222" s="1">
+        <v>3.6665000000000001</v>
+      </c>
+      <c r="AE222" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK222" t="s">
         <v>0</v>
       </c>
@@ -12878,6 +18224,30 @@
         <v>0.16349</v>
       </c>
       <c r="P223" s="1"/>
+      <c r="X223">
+        <f t="shared" si="9"/>
+        <v>2.9999999999999472E-4</v>
+      </c>
+      <c r="Y223">
+        <f t="shared" si="10"/>
+        <v>1.8316136516270513E-3</v>
+      </c>
+      <c r="AA223" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB223" s="1">
+        <v>3.75854</v>
+      </c>
+      <c r="AC223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD223" s="1">
+        <v>3.7170700000000001</v>
+      </c>
+      <c r="AE223" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK223" t="s">
         <v>0</v>
       </c>
@@ -12903,6 +18273,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P224" s="1"/>
+      <c r="X224">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y224">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB224" s="1">
+        <v>3.839</v>
+      </c>
+      <c r="AC224" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD224" s="1">
+        <v>3.84355</v>
+      </c>
+      <c r="AE224" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK224" t="s">
         <v>0</v>
       </c>
@@ -12928,6 +18322,30 @@
         <v>0.16020000000000001</v>
       </c>
       <c r="P225" s="1"/>
+      <c r="X225">
+        <f t="shared" si="9"/>
+        <v>4.8999999999999044E-4</v>
+      </c>
+      <c r="Y225">
+        <f t="shared" si="10"/>
+        <v>3.0493496795070659E-3</v>
+      </c>
+      <c r="AA225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB225" s="1">
+        <v>3.8740199999999998</v>
+      </c>
+      <c r="AC225" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD225" s="1">
+        <v>3.9234200000000001</v>
+      </c>
+      <c r="AE225" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK225" t="s">
         <v>0</v>
       </c>
@@ -12953,6 +18371,30 @@
         <v>0.16062000000000001</v>
       </c>
       <c r="P226" s="1"/>
+      <c r="X226">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y226">
+        <f t="shared" si="10"/>
+        <v>1.2450199203182423E-4</v>
+      </c>
+      <c r="AA226" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB226" s="1">
+        <v>3.8759899999999998</v>
+      </c>
+      <c r="AC226" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD226" s="1">
+        <v>3.9662899999999999</v>
+      </c>
+      <c r="AE226" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="IK226" t="s">
         <v>0</v>
       </c>
@@ -12978,6 +18420,30 @@
         <v>0.18557000000000001</v>
       </c>
       <c r="P227" s="1"/>
+      <c r="X227">
+        <f t="shared" si="9"/>
+        <v>4.9399999999999999E-3</v>
+      </c>
+      <c r="Y227">
+        <f t="shared" si="10"/>
+        <v>2.593039735446958E-2</v>
+      </c>
+      <c r="AA227" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB227" s="1">
+        <v>3.9288099999999999</v>
+      </c>
+      <c r="AC227" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD227" s="1">
+        <v>4.0024899999999999</v>
+      </c>
+      <c r="AE227" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK227" t="s">
         <v>0</v>
       </c>
@@ -13003,6 +18469,30 @@
         <v>0.17161000000000001</v>
       </c>
       <c r="P228" s="1"/>
+      <c r="X228">
+        <f t="shared" si="9"/>
+        <v>3.0199999999999949E-3</v>
+      </c>
+      <c r="Y228">
+        <f t="shared" si="10"/>
+        <v>1.7293706694153324E-2</v>
+      </c>
+      <c r="AA228" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB228" s="1">
+        <v>4.0136500000000002</v>
+      </c>
+      <c r="AC228" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD228" s="1">
+        <v>4.0720999999999998</v>
+      </c>
+      <c r="AE228" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK228" t="s">
         <v>0</v>
       </c>
@@ -13028,6 +18518,30 @@
         <v>0.16020000000000001</v>
       </c>
       <c r="P229" s="1"/>
+      <c r="X229">
+        <f t="shared" si="9"/>
+        <v>4.8999999999999044E-4</v>
+      </c>
+      <c r="Y229">
+        <f t="shared" si="10"/>
+        <v>3.0493496795070659E-3</v>
+      </c>
+      <c r="AA229" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB229" s="1">
+        <v>4.1484699999999997</v>
+      </c>
+      <c r="AC229" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD229" s="1">
+        <v>4.3079200000000002</v>
+      </c>
+      <c r="AE229" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK229" t="s">
         <v>0</v>
       </c>
@@ -13053,6 +18567,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P230" s="1"/>
+      <c r="X230">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y230">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA230" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB230" s="1">
+        <v>4.1639499999999998</v>
+      </c>
+      <c r="AC230" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD230" s="1">
+        <v>4.4260400000000004</v>
+      </c>
+      <c r="AE230" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK230" t="s">
         <v>0</v>
       </c>
@@ -13078,6 +18616,30 @@
         <v>0.16170000000000001</v>
       </c>
       <c r="P231" s="1"/>
+      <c r="X231">
+        <f t="shared" si="9"/>
+        <v>1.3399999999999801E-3</v>
+      </c>
+      <c r="Y231">
+        <f t="shared" si="10"/>
+        <v>8.2188420019625869E-3</v>
+      </c>
+      <c r="AA231" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB231" s="1">
+        <v>4.1665999999999999</v>
+      </c>
+      <c r="AC231" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD231" s="1">
+        <v>4.5496800000000004</v>
+      </c>
+      <c r="AE231" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK231" t="s">
         <v>0</v>
       </c>
@@ -13103,6 +18665,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P232" s="1"/>
+      <c r="X232">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y232">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA232" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB232" s="1">
+        <v>4.3586400000000003</v>
+      </c>
+      <c r="AC232" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD232" s="1">
+        <v>4.6061899999999998</v>
+      </c>
+      <c r="AE232" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK232" t="s">
         <v>0</v>
       </c>
@@ -13128,6 +18714,30 @@
         <v>0.16062000000000001</v>
       </c>
       <c r="P233" s="1"/>
+      <c r="X233">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="Y233">
+        <f t="shared" si="10"/>
+        <v>3.1032770605759707E-3</v>
+      </c>
+      <c r="AA233" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB233" s="1">
+        <v>4.5116899999999998</v>
+      </c>
+      <c r="AC233" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD233" s="1">
+        <v>4.7067100000000002</v>
+      </c>
+      <c r="AE233" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK233" t="s">
         <v>0</v>
       </c>
@@ -13153,6 +18763,30 @@
         <v>0.17863000000000001</v>
       </c>
       <c r="P234" s="1"/>
+      <c r="X234">
+        <f t="shared" si="9"/>
+        <v>3.6999999999999811E-3</v>
+      </c>
+      <c r="Y234">
+        <f t="shared" si="10"/>
+        <v>2.0292875555311694E-2</v>
+      </c>
+      <c r="AA234" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB234" s="1">
+        <v>4.9125199999999998</v>
+      </c>
+      <c r="AC234" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD234" s="1">
+        <v>4.7250699999999997</v>
+      </c>
+      <c r="AE234" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK234" t="s">
         <v>0</v>
       </c>
@@ -13178,6 +18812,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P235" s="1"/>
+      <c r="X235">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y235">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA235" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB235" s="1">
+        <v>5.1746499999999997</v>
+      </c>
+      <c r="AC235" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD235" s="1">
+        <v>5.1902900000000001</v>
+      </c>
+      <c r="AE235" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK235" t="s">
         <v>0</v>
       </c>
@@ -13203,6 +18861,30 @@
         <v>0.17004</v>
       </c>
       <c r="P236" s="1"/>
+      <c r="X236">
+        <f t="shared" si="9"/>
+        <v>2.48000000000001E-3</v>
+      </c>
+      <c r="Y236">
+        <f t="shared" si="10"/>
+        <v>1.4375144910735044E-2</v>
+      </c>
+      <c r="AA236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB236" s="1">
+        <v>5.32775</v>
+      </c>
+      <c r="AC236" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD236" s="1">
+        <v>5.3529</v>
+      </c>
+      <c r="AE236" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK236" t="s">
         <v>0</v>
       </c>
@@ -13228,6 +18910,30 @@
         <v>0.16763</v>
       </c>
       <c r="P237" s="1"/>
+      <c r="X237">
+        <f t="shared" si="9"/>
+        <v>1.6599999999999948E-3</v>
+      </c>
+      <c r="Y237">
+        <f t="shared" si="10"/>
+        <v>9.8056589284659153E-3</v>
+      </c>
+      <c r="AA237" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB237" s="1">
+        <v>5.6090600000000004</v>
+      </c>
+      <c r="AC237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD237" s="1">
+        <v>5.5050499999999998</v>
+      </c>
+      <c r="AE237" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK237" t="s">
         <v>0</v>
       </c>
@@ -13253,6 +18959,30 @@
         <v>0.17247000000000001</v>
       </c>
       <c r="P238" s="1"/>
+      <c r="X238">
+        <f t="shared" si="9"/>
+        <v>8.9999999999978986E-5</v>
+      </c>
+      <c r="Y238">
+        <f t="shared" si="10"/>
+        <v>5.2155771905412025E-4</v>
+      </c>
+      <c r="AA238" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB238" s="1">
+        <v>5.8487200000000001</v>
+      </c>
+      <c r="AC238" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD238" s="1">
+        <v>5.6482299999999999</v>
+      </c>
+      <c r="AE238" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK238" t="s">
         <v>0</v>
       </c>
@@ -13278,6 +19008,30 @@
         <v>0.16827</v>
       </c>
       <c r="P239" s="1"/>
+      <c r="X239">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="Y239">
+        <f t="shared" si="10"/>
+        <v>2.9626118385969098E-3</v>
+      </c>
+      <c r="AA239" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB239" s="1">
+        <v>6.1406200000000002</v>
+      </c>
+      <c r="AC239" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD239" s="1">
+        <v>5.8898700000000002</v>
+      </c>
+      <c r="AE239" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="IK239" t="s">
         <v>0</v>
       </c>
@@ -13303,6 +19057,30 @@
         <v>0.17463999999999999</v>
       </c>
       <c r="P240" s="1"/>
+      <c r="X240">
+        <f t="shared" si="9"/>
+        <v>4.610000000000003E-3</v>
+      </c>
+      <c r="Y240">
+        <f t="shared" si="10"/>
+        <v>2.5718270571827073E-2</v>
+      </c>
+      <c r="AA240" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB240" s="1">
+        <v>6.1705899999999998</v>
+      </c>
+      <c r="AC240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD240" s="1">
+        <v>6.3391700000000002</v>
+      </c>
+      <c r="AE240" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK240" t="s">
         <v>0</v>
       </c>
@@ -13328,6 +19106,30 @@
         <v>0.15296999999999999</v>
       </c>
       <c r="P241" s="1"/>
+      <c r="X241">
+        <f t="shared" si="9"/>
+        <v>1.9999999999992246E-5</v>
+      </c>
+      <c r="Y241">
+        <f t="shared" si="10"/>
+        <v>1.3072749852926496E-4</v>
+      </c>
+      <c r="AA241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB241" s="1">
+        <v>6.4154099999999996</v>
+      </c>
+      <c r="AC241" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD241" s="1">
+        <v>6.5532599999999999</v>
+      </c>
+      <c r="AE241" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="IK241" t="s">
         <v>0</v>
       </c>
@@ -13345,6 +19147,10 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
       <c r="IK242" t="s">
         <v>1</v>
       </c>
@@ -13362,6 +19168,10 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
       <c r="IK243" t="s">
         <v>0</v>
       </c>
@@ -13379,6 +19189,10 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
+      <c r="AD244" s="1"/>
       <c r="IK244" t="s">
         <v>0</v>
       </c>
@@ -13396,6 +19210,10 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
+      <c r="AD245" s="1"/>
       <c r="IK245" t="s">
         <v>0</v>
       </c>
@@ -13413,6 +19231,10 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
+      <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
+      <c r="AC246" s="1"/>
+      <c r="AD246" s="1"/>
       <c r="IK246" t="s">
         <v>1</v>
       </c>
@@ -13430,6 +19252,10 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
+      <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
+      <c r="AC247" s="1"/>
+      <c r="AD247" s="1"/>
       <c r="IK247" t="s">
         <v>1</v>
       </c>
@@ -13447,6 +19273,10 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
+      <c r="AA248" s="1"/>
+      <c r="AB248" s="1"/>
+      <c r="AC248" s="1"/>
+      <c r="AD248" s="1"/>
       <c r="IK248" t="s">
         <v>0</v>
       </c>
@@ -13464,6 +19294,10 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
+      <c r="AA249" s="1"/>
+      <c r="AB249" s="1"/>
+      <c r="AC249" s="1"/>
+      <c r="AD249" s="1"/>
       <c r="IK249" t="s">
         <v>0</v>
       </c>
@@ -13481,6 +19315,10 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
+      <c r="AA250" s="1"/>
+      <c r="AB250" s="1"/>
+      <c r="AC250" s="1"/>
+      <c r="AD250" s="1"/>
       <c r="IK250" t="s">
         <v>0</v>
       </c>
@@ -13498,6 +19336,10 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
+      <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
+      <c r="AC251" s="1"/>
+      <c r="AD251" s="1"/>
       <c r="IK251" t="s">
         <v>0</v>
       </c>
@@ -13515,6 +19357,10 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
+      <c r="AA252" s="1"/>
+      <c r="AB252" s="1"/>
+      <c r="AC252" s="1"/>
+      <c r="AD252" s="1"/>
       <c r="IK252" t="s">
         <v>0</v>
       </c>
@@ -13532,6 +19378,10 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
+      <c r="AA253" s="1"/>
+      <c r="AB253" s="1"/>
+      <c r="AC253" s="1"/>
+      <c r="AD253" s="1"/>
       <c r="IK253" t="s">
         <v>0</v>
       </c>
@@ -13549,6 +19399,10 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
+      <c r="AA254" s="1"/>
+      <c r="AB254" s="1"/>
+      <c r="AC254" s="1"/>
+      <c r="AD254" s="1"/>
       <c r="IK254" t="s">
         <v>0</v>
       </c>
@@ -13566,6 +19420,10 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
+      <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
+      <c r="AC255" s="1"/>
+      <c r="AD255" s="1"/>
       <c r="IK255" t="s">
         <v>0</v>
       </c>
@@ -13583,6 +19441,10 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
+      <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
+      <c r="AC256" s="1"/>
+      <c r="AD256" s="1"/>
       <c r="IK256" t="s">
         <v>0</v>
       </c>
@@ -13600,6 +19462,10 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
+      <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
+      <c r="AC257" s="1"/>
+      <c r="AD257" s="1"/>
       <c r="IK257" t="s">
         <v>0</v>
       </c>
@@ -13617,6 +19483,10 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
       <c r="IK258" t="s">
         <v>0</v>
       </c>
@@ -13634,6 +19504,10 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
+      <c r="AD259" s="1"/>
       <c r="IK259" t="s">
         <v>0</v>
       </c>
@@ -13651,6 +19525,10 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
+      <c r="AD260" s="1"/>
       <c r="IK260" t="s">
         <v>0</v>
       </c>
@@ -13668,10 +19546,14 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
+      <c r="AD261" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C240">
-    <sortCondition ref="A2:A240"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC2:AD262">
+    <sortCondition ref="AD2:AD262"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
